--- a/_apidocs/sam-entity-extracts-api/v1/SAM_MASTER_EXTRACT_MAPPING v6.0.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM_MASTER_EXTRACT_MAPPING v6.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelVILLAVICENCIO\Desktop\INT050 New Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7B8241A-698C-4082-9EF6-9FD158B9D7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314EF4C7-842B-4D78-9CE2-A5A168FFA9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Element Mapping" sheetId="4" r:id="rId1"/>
@@ -2588,13 +2588,6 @@
 While the Entity Congressional District is usually displayed as 2 characters, there may be instances where this can be updated to have STATE + 2-digit Entity Congressional District, for a total of 10 characters.</t>
   </si>
   <si>
-    <t>UNIQUE ENTITY IDENTIFIER (SAM)</t>
-  </si>
-  <si>
-    <t>The Unique Entity Identifier (SAM) for the entity.
-It is 12-character alpha-numeric. Example: F847A1795DE4</t>
-  </si>
-  <si>
     <t>If Available (All Awards/Federal Assistance)</t>
   </si>
   <si>
@@ -2637,12 +2630,6 @@
     <t>EFT INDICATOR</t>
   </si>
   <si>
-    <t>HQ PARENT UNIQUE ENTITY IDENTIFIER</t>
-  </si>
-  <si>
-    <t>DOMESTIC PARENT UNIQUE ENTITY IDENTIFIER</t>
-  </si>
-  <si>
     <t>EVS OUT OF BUSINESS INDICATOR</t>
   </si>
   <si>
@@ -2701,9 +2688,6 @@
   </si>
   <si>
     <t>ULTIMATE PARENT PHONE</t>
-  </si>
-  <si>
-    <t>ULTIMATE PARENT UNIQUE ENTITY IDENTIFIER</t>
   </si>
   <si>
     <t>Mandatory to enter EFT INDICATOR if the UEI(DUNS) has multiple bank accounts.</t>
@@ -2777,6 +2761,22 @@
   </si>
   <si>
     <t>This is the Phone Number of the immediate parent entity of the registrant</t>
+  </si>
+  <si>
+    <t>ULTIMATE PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>DOMESTIC PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>HQ PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>The UNIQUE ENTITY ID for the entity.
+It is 12-character alpha-numeric. Example: F847A1795DE4</t>
   </si>
 </sst>
 </file>
@@ -3867,6 +3867,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3923,31 +3948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4434,10 +4434,10 @@
   <dimension ref="A1:O345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -4462,48 +4462,48 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="156" t="s">
         <v>707</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="155" t="s">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="163" t="s">
         <v>785</v>
       </c>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="158" t="s">
         <v>787</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="146" t="s">
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="154" t="s">
         <v>396</v>
       </c>
-      <c r="K3" s="147"/>
-      <c r="L3" s="152" t="s">
+      <c r="K3" s="155"/>
+      <c r="L3" s="160" t="s">
         <v>786</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="162"/>
     </row>
     <row r="4" spans="1:14" ht="26.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -4551,7 +4551,7 @@
     </row>
     <row r="5" spans="1:14" s="137" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>403</v>
@@ -4563,15 +4563,15 @@
         <v>12</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="138" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H5" s="134"/>
       <c r="I5" s="36" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>415</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="6" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>403</v>
@@ -4613,7 +4613,7 @@
         <v>204</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="I6" s="25">
         <v>1111</v>
@@ -4742,7 +4742,7 @@
         <v>772</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>399</v>
@@ -12003,44 +12003,44 @@
     </row>
     <row r="173" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A173" s="36" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B173" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D173" s="29">
         <v>150</v>
       </c>
       <c r="E173" s="47" t="s">
-        <v>883</v>
-      </c>
-      <c r="F173" s="165"/>
-      <c r="G173" s="166" t="s">
+        <v>878</v>
+      </c>
+      <c r="F173" s="146"/>
+      <c r="G173" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="H173" s="167"/>
+      <c r="H173" s="148"/>
       <c r="I173" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="J173" s="168" t="s">
+      <c r="J173" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="K173" s="165">
+      <c r="K173" s="146">
         <f t="shared" ref="K173:K181" si="34">IF(J173="Public",1,IF(J173="FOUO",2,IF(J173="Sensitive",3,IF(J173="System-Only",4))))</f>
         <v>2</v>
       </c>
-      <c r="L173" s="169" t="str">
+      <c r="L173" s="150" t="str">
         <f t="shared" ref="L173:L181" si="35">IF(K173&lt;=1,"X","")</f>
         <v/>
       </c>
-      <c r="M173" s="170" t="str">
+      <c r="M173" s="151" t="str">
         <f>IF(K173&lt;=2,"X","")</f>
         <v>X</v>
       </c>
-      <c r="N173" s="171" t="str">
+      <c r="N173" s="152" t="str">
         <f>IF(K173&lt;=3,"X","")</f>
         <v>X</v>
       </c>
@@ -12048,44 +12048,44 @@
     </row>
     <row r="174" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A174" s="36" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B174" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D174" s="29">
         <v>12</v>
       </c>
       <c r="E174" s="47" t="s">
-        <v>885</v>
-      </c>
-      <c r="F174" s="165"/>
-      <c r="G174" s="166" t="s">
+        <v>880</v>
+      </c>
+      <c r="F174" s="146"/>
+      <c r="G174" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="H174" s="167"/>
-      <c r="I174" s="165" t="s">
-        <v>886</v>
-      </c>
-      <c r="J174" s="168" t="s">
+      <c r="H174" s="148"/>
+      <c r="I174" s="146" t="s">
+        <v>881</v>
+      </c>
+      <c r="J174" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="K174" s="165">
+      <c r="K174" s="146">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="L174" s="169" t="str">
+      <c r="L174" s="150" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M174" s="170" t="str">
+      <c r="M174" s="151" t="str">
         <f>IF(K174&lt;=2,"X","")</f>
         <v>X</v>
       </c>
-      <c r="N174" s="171" t="str">
+      <c r="N174" s="152" t="str">
         <f>IF(K174&lt;=3,"X","")</f>
         <v>X</v>
       </c>
@@ -12093,44 +12093,44 @@
     </row>
     <row r="175" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A175" s="36" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B175" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C175" s="29" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D175" s="29">
         <v>150</v>
       </c>
       <c r="E175" s="47" t="s">
-        <v>888</v>
-      </c>
-      <c r="F175" s="165"/>
-      <c r="G175" s="166" t="s">
+        <v>883</v>
+      </c>
+      <c r="F175" s="146"/>
+      <c r="G175" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="H175" s="167"/>
+      <c r="H175" s="148"/>
       <c r="I175" s="36" t="s">
         <v>520</v>
       </c>
-      <c r="J175" s="168" t="s">
+      <c r="J175" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="K175" s="165">
+      <c r="K175" s="146">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="L175" s="169" t="str">
+      <c r="L175" s="150" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M175" s="170" t="str">
+      <c r="M175" s="151" t="str">
         <f t="shared" ref="M175:M181" si="36">IF(K175&lt;=2,"X","")</f>
         <v>X</v>
       </c>
-      <c r="N175" s="171" t="str">
+      <c r="N175" s="152" t="str">
         <f t="shared" ref="N175:N181" si="37">IF(K175&lt;=3,"X","")</f>
         <v>X</v>
       </c>
@@ -12138,44 +12138,44 @@
     </row>
     <row r="176" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A176" s="36" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B176" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D176" s="29">
         <v>150</v>
       </c>
       <c r="E176" s="47" t="s">
-        <v>890</v>
-      </c>
-      <c r="F176" s="165"/>
-      <c r="G176" s="166" t="s">
+        <v>885</v>
+      </c>
+      <c r="F176" s="146"/>
+      <c r="G176" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="H176" s="167"/>
+      <c r="H176" s="148"/>
       <c r="I176" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="J176" s="168" t="s">
+      <c r="J176" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="K176" s="165">
+      <c r="K176" s="146">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="L176" s="169" t="str">
+      <c r="L176" s="150" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M176" s="170" t="str">
+      <c r="M176" s="151" t="str">
         <f t="shared" si="36"/>
         <v>X</v>
       </c>
-      <c r="N176" s="171" t="str">
+      <c r="N176" s="152" t="str">
         <f t="shared" si="37"/>
         <v>X</v>
       </c>
@@ -12183,44 +12183,44 @@
     </row>
     <row r="177" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A177" s="36" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B177" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D177" s="29">
         <v>40</v>
       </c>
       <c r="E177" s="47" t="s">
-        <v>892</v>
-      </c>
-      <c r="F177" s="165"/>
-      <c r="G177" s="166" t="s">
+        <v>887</v>
+      </c>
+      <c r="F177" s="146"/>
+      <c r="G177" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="H177" s="167"/>
+      <c r="H177" s="148"/>
       <c r="I177" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="J177" s="168" t="s">
+      <c r="J177" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="K177" s="165">
+      <c r="K177" s="146">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="L177" s="169" t="str">
+      <c r="L177" s="150" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M177" s="170" t="str">
+      <c r="M177" s="151" t="str">
         <f t="shared" si="36"/>
         <v>X</v>
       </c>
-      <c r="N177" s="171" t="str">
+      <c r="N177" s="152" t="str">
         <f t="shared" si="37"/>
         <v>X</v>
       </c>
@@ -12228,44 +12228,44 @@
     </row>
     <row r="178" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A178" s="36" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B178" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C178" s="29" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D178" s="29">
         <v>50</v>
       </c>
       <c r="E178" s="47" t="s">
-        <v>894</v>
-      </c>
-      <c r="F178" s="165"/>
-      <c r="G178" s="166" t="s">
+        <v>889</v>
+      </c>
+      <c r="F178" s="146"/>
+      <c r="G178" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="H178" s="167"/>
-      <c r="I178" s="172" t="s">
+      <c r="H178" s="148"/>
+      <c r="I178" s="153" t="s">
         <v>436</v>
       </c>
-      <c r="J178" s="168" t="s">
+      <c r="J178" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="K178" s="165">
+      <c r="K178" s="146">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="L178" s="169" t="str">
+      <c r="L178" s="150" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M178" s="170" t="str">
+      <c r="M178" s="151" t="str">
         <f t="shared" si="36"/>
         <v>X</v>
       </c>
-      <c r="N178" s="171" t="str">
+      <c r="N178" s="152" t="str">
         <f t="shared" si="37"/>
         <v>X</v>
       </c>
@@ -12273,44 +12273,44 @@
     </row>
     <row r="179" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A179" s="36" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B179" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D179" s="29">
         <v>3</v>
       </c>
       <c r="E179" s="47" t="s">
-        <v>896</v>
-      </c>
-      <c r="F179" s="165"/>
-      <c r="G179" s="166" t="s">
+        <v>891</v>
+      </c>
+      <c r="F179" s="146"/>
+      <c r="G179" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="H179" s="167"/>
+      <c r="H179" s="148"/>
       <c r="I179" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="J179" s="168" t="s">
+      <c r="J179" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="K179" s="165">
+      <c r="K179" s="146">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="L179" s="169" t="str">
+      <c r="L179" s="150" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M179" s="170" t="str">
+      <c r="M179" s="151" t="str">
         <f t="shared" si="36"/>
         <v>X</v>
       </c>
-      <c r="N179" s="171" t="str">
+      <c r="N179" s="152" t="str">
         <f t="shared" si="37"/>
         <v>X</v>
       </c>
@@ -12318,44 +12318,44 @@
     </row>
     <row r="180" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A180" s="36" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B180" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D180" s="29">
         <v>55</v>
       </c>
       <c r="E180" s="47" t="s">
-        <v>898</v>
-      </c>
-      <c r="F180" s="165"/>
-      <c r="G180" s="166" t="s">
+        <v>893</v>
+      </c>
+      <c r="F180" s="146"/>
+      <c r="G180" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="H180" s="167"/>
+      <c r="H180" s="148"/>
       <c r="I180" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="J180" s="168" t="s">
+      <c r="J180" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="K180" s="165">
+      <c r="K180" s="146">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="L180" s="169" t="str">
+      <c r="L180" s="150" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M180" s="170" t="str">
+      <c r="M180" s="151" t="str">
         <f t="shared" si="36"/>
         <v>X</v>
       </c>
-      <c r="N180" s="171" t="str">
+      <c r="N180" s="152" t="str">
         <f t="shared" si="37"/>
         <v>X</v>
       </c>
@@ -12363,44 +12363,44 @@
     </row>
     <row r="181" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A181" s="36" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B181" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D181" s="29">
         <v>30</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>900</v>
-      </c>
-      <c r="F181" s="165"/>
-      <c r="G181" s="166" t="s">
+        <v>895</v>
+      </c>
+      <c r="F181" s="146"/>
+      <c r="G181" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="H181" s="167"/>
-      <c r="I181" s="172" t="s">
+      <c r="H181" s="148"/>
+      <c r="I181" s="153" t="s">
         <v>413</v>
       </c>
-      <c r="J181" s="168" t="s">
+      <c r="J181" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="K181" s="165">
+      <c r="K181" s="146">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="L181" s="169" t="str">
+      <c r="L181" s="150" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M181" s="170" t="str">
+      <c r="M181" s="151" t="str">
         <f t="shared" si="36"/>
         <v>X</v>
       </c>
-      <c r="N181" s="171" t="str">
+      <c r="N181" s="152" t="str">
         <f t="shared" si="37"/>
         <v>X</v>
       </c>
@@ -12454,7 +12454,7 @@
     </row>
     <row r="183" spans="1:15" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
-        <v>856</v>
+        <v>898</v>
       </c>
       <c r="B183" s="24" t="s">
         <v>403</v>
@@ -12476,7 +12476,7 @@
         <v>208</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J183" s="39" t="s">
         <v>405</v>
@@ -12868,7 +12868,7 @@
     </row>
     <row r="192" spans="1:15" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
-        <v>857</v>
+        <v>897</v>
       </c>
       <c r="B192" s="24" t="s">
         <v>403</v>
@@ -12890,7 +12890,7 @@
         <v>209</v>
       </c>
       <c r="I192" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J192" s="39" t="s">
         <v>405</v>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="200" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B200" s="24" t="s">
         <v>403</v>
@@ -13282,7 +13282,7 @@
     </row>
     <row r="201" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="B201" s="24" t="s">
         <v>403</v>
@@ -13304,7 +13304,7 @@
         <v>210</v>
       </c>
       <c r="I201" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J201" s="39" t="s">
         <v>405</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="202" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B202" s="24" t="s">
         <v>403</v>
@@ -13374,7 +13374,7 @@
     </row>
     <row r="203" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B203" s="24" t="s">
         <v>403</v>
@@ -13420,7 +13420,7 @@
     </row>
     <row r="204" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B204" s="24" t="s">
         <v>403</v>
@@ -13466,7 +13466,7 @@
     </row>
     <row r="205" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B205" s="24" t="s">
         <v>403</v>
@@ -13512,7 +13512,7 @@
     </row>
     <row r="206" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B206" s="24" t="s">
         <v>403</v>
@@ -13558,7 +13558,7 @@
     </row>
     <row r="207" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B207" s="24" t="s">
         <v>403</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="208" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B208" s="24" t="s">
         <v>403</v>
@@ -13650,7 +13650,7 @@
     </row>
     <row r="209" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B209" s="24" t="s">
         <v>403</v>
@@ -13665,7 +13665,7 @@
         <v>563</v>
       </c>
       <c r="F209" s="106" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="G209" s="31" t="s">
         <v>204</v>
@@ -13695,7 +13695,7 @@
     </row>
     <row r="210" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>403</v>
@@ -13738,7 +13738,7 @@
     </row>
     <row r="211" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="28" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>403</v>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="212" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B212" s="24" t="s">
         <v>403</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="213" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="28" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B213" s="24" t="s">
         <v>403</v>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="214" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B214" s="24" t="s">
         <v>403</v>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="215" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B215" s="24" t="s">
         <v>403</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="216" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="28" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B216" s="24" t="s">
         <v>403</v>
@@ -13996,7 +13996,7 @@
     </row>
     <row r="217" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="28" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B217" s="24" t="s">
         <v>403</v>
@@ -14039,7 +14039,7 @@
     </row>
     <row r="218" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B218" s="24" t="s">
         <v>403</v>
@@ -14082,7 +14082,7 @@
     </row>
     <row r="219" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B219" s="24" t="s">
         <v>403</v>
@@ -19453,7 +19453,7 @@
     </row>
     <row r="340" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="139" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B340" s="140" t="s">
         <v>403</v>
@@ -19465,7 +19465,7 @@
         <v>10</v>
       </c>
       <c r="E340" s="141" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F340" s="142"/>
       <c r="G340" s="143" t="s">
@@ -19473,7 +19473,7 @@
       </c>
       <c r="H340" s="144"/>
       <c r="I340" s="142" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J340" s="145" t="s">
         <v>415</v>
@@ -19497,7 +19497,7 @@
     </row>
     <row r="341" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A341" s="139" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B341" s="140" t="s">
         <v>403</v>
@@ -19509,7 +19509,7 @@
         <v>10</v>
       </c>
       <c r="E341" s="141" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F341" s="142"/>
       <c r="G341" s="143" t="s">
@@ -19517,7 +19517,7 @@
       </c>
       <c r="H341" s="144"/>
       <c r="I341" s="142" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J341" s="145" t="s">
         <v>405</v>
@@ -19541,7 +19541,7 @@
     </row>
     <row r="342" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A342" s="139" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B342" s="140" t="s">
         <v>403</v>
@@ -19553,17 +19553,17 @@
         <v>10</v>
       </c>
       <c r="E342" s="141" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F342" s="142"/>
       <c r="G342" s="143" t="s">
         <v>757</v>
       </c>
       <c r="H342" s="144" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I342" s="142" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J342" s="145" t="s">
         <v>405</v>
@@ -19587,7 +19587,7 @@
     </row>
     <row r="343" spans="1:14" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A343" s="139" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B343" s="140" t="s">
         <v>403</v>
@@ -19599,17 +19599,17 @@
         <v>10</v>
       </c>
       <c r="E343" s="141" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F343" s="142"/>
       <c r="G343" s="143" t="s">
         <v>757</v>
       </c>
       <c r="H343" s="144" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I343" s="142" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J343" s="145" t="s">
         <v>405</v>
@@ -19633,7 +19633,7 @@
     </row>
     <row r="344" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A344" s="139" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B344" s="140" t="s">
         <v>403</v>
@@ -19645,17 +19645,17 @@
         <v>10</v>
       </c>
       <c r="E344" s="141" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F344" s="142"/>
       <c r="G344" s="143" t="s">
         <v>757</v>
       </c>
       <c r="H344" s="144" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I344" s="142" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J344" s="145" t="s">
         <v>405</v>
@@ -19849,10 +19849,10 @@
       <c r="B5" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="170"/>
       <c r="F5" s="13" t="s">
         <v>3</v>
       </c>
@@ -19911,10 +19911,10 @@
       <c r="B10" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="164"/>
+      <c r="D10" s="172"/>
       <c r="F10" s="13" t="s">
         <v>4</v>
       </c>
@@ -19973,10 +19973,10 @@
       <c r="B15" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="171" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="164"/>
+      <c r="D15" s="172"/>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="53" t="s">
@@ -20038,10 +20038,10 @@
       <c r="B20" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="164"/>
+      <c r="D20" s="172"/>
       <c r="F20" s="12" t="s">
         <v>183</v>
       </c>
@@ -20100,10 +20100,10 @@
       <c r="B25" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="163" t="s">
+      <c r="C25" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="164"/>
+      <c r="D25" s="172"/>
       <c r="F25" s="12" t="s">
         <v>12</v>
       </c>
@@ -20952,22 +20952,22 @@
       <c r="B147" s="17"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C148" s="158" t="s">
+      <c r="C148" s="166" t="s">
         <v>729</v>
       </c>
-      <c r="D148" s="158"/>
-      <c r="E148" s="158"/>
-      <c r="F148" s="158"/>
-      <c r="G148" s="158"/>
+      <c r="D148" s="166"/>
+      <c r="E148" s="166"/>
+      <c r="F148" s="166"/>
+      <c r="G148" s="166"/>
     </row>
     <row r="149" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="159" t="s">
+      <c r="C149" s="167" t="s">
         <v>827</v>
       </c>
-      <c r="D149" s="160"/>
-      <c r="E149" s="160"/>
-      <c r="F149" s="160"/>
-      <c r="G149" s="160"/>
+      <c r="D149" s="168"/>
+      <c r="E149" s="168"/>
+      <c r="F149" s="168"/>
+      <c r="G149" s="168"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C151" s="12" t="s">
@@ -21264,7 +21264,7 @@
         <v>38500000</v>
       </c>
       <c r="F185" s="92"/>
-      <c r="H185" s="158" t="s">
+      <c r="H185" s="166" t="s">
         <v>541</v>
       </c>
     </row>
@@ -21282,7 +21282,7 @@
         <v>27500000</v>
       </c>
       <c r="F186" s="92"/>
-      <c r="H186" s="158"/>
+      <c r="H186" s="166"/>
     </row>
     <row r="187" spans="2:8" ht="31" x14ac:dyDescent="0.25">
       <c r="B187" s="130">

--- a/_apidocs/sam-entity-extracts-api/v1/SAM_MASTER_EXTRACT_MAPPING v6.0.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM_MASTER_EXTRACT_MAPPING v6.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelVILLAVICENCIO\Desktop\INT050 New Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314EF4C7-842B-4D78-9CE2-A5A168FFA9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0979C4-E642-4C64-A58D-BFA6E6EBE098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Element Mapping" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="902">
   <si>
     <t>Breakdown of the string and example below:</t>
   </si>
@@ -2332,9 +2332,6 @@
     <t>Optional (All Awards/Federal Assistance)</t>
   </si>
   <si>
-    <t>This flag indicates whether the entity represented by this DUNS Number has an active exclusion record. If this flag is set to “D”, this will indicate that the registrant has an exclusion record.  A null value indicates that this registrant's DUNS Number does not have an active exclusion record.</t>
-  </si>
-  <si>
     <t>A620191108~XX20191108</t>
   </si>
   <si>
@@ -2410,9 +2407,6 @@
   </si>
   <si>
     <t>See STRING Clarification Tab</t>
-  </si>
-  <si>
-    <t>The office code is an up-to six character identifier representing a U.S. government office in the SAM Federal hierarchy. This code exists independently of the unique entity identifier used for registration purposes, i.e. DUNS Number, DoDAAC, or CAGE Code.</t>
   </si>
   <si>
     <t>WHICH SAM EXTRACT IS THE ELEMENT IN?</t>
@@ -2688,9 +2682,6 @@
   </si>
   <si>
     <t>ULTIMATE PARENT PHONE</t>
-  </si>
-  <si>
-    <t>Mandatory to enter EFT INDICATOR if the UEI(DUNS) has multiple bank accounts.</t>
   </si>
   <si>
     <t>Monthly File:
@@ -2777,6 +2768,18 @@
   <si>
     <t>The UNIQUE ENTITY ID for the entity.
 It is 12-character alpha-numeric. Example: F847A1795DE4</t>
+  </si>
+  <si>
+    <t>Mandatory to enter EFT INDICATOR if the Entity has multiple bank accounts.</t>
+  </si>
+  <si>
+    <t>This flag indicates whether the entity has an active exclusion record. If this flag is set to “D”, this will indicate that the registrant has an exclusion record.  A null value indicates that this entity does not have an active exclusion record.</t>
+  </si>
+  <si>
+    <t>The office code is an up-to six character identifier representing a U.S. government office in the SAM Federal hierarchy. This code exists independently of the unique entity identifier used for registration purposes, i.e. UEI(SAM), DoDAAC, or CAGE Code.</t>
+  </si>
+  <si>
+    <t>Last Updated: 2022-04-01</t>
   </si>
 </sst>
 </file>
@@ -3955,29 +3958,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -4431,13 +4412,13 @@
   <sheetPr codeName="Sheet2">
     <tabColor indexed="18"/>
   </sheetPr>
-  <dimension ref="A1:O345"/>
+  <dimension ref="A1:O347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -4474,7 +4455,7 @@
       <c r="H2" s="157"/>
       <c r="I2" s="157"/>
       <c r="J2" s="163" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K2" s="164"/>
       <c r="L2" s="164"/>
@@ -4486,7 +4467,7 @@
         <v>561</v>
       </c>
       <c r="B3" s="158" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C3" s="159"/>
       <c r="D3" s="159"/>
@@ -4500,7 +4481,7 @@
       </c>
       <c r="K3" s="155"/>
       <c r="L3" s="160" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="M3" s="161"/>
       <c r="N3" s="162"/>
@@ -4551,27 +4532,27 @@
     </row>
     <row r="5" spans="1:14" s="137" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D5" s="29">
         <v>12</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="138" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H5" s="134"/>
       <c r="I5" s="36" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>415</v>
@@ -4592,9 +4573,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>403</v>
@@ -4613,7 +4594,7 @@
         <v>204</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="I6" s="25">
         <v>1111</v>
@@ -4739,10 +4720,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>399</v>
@@ -4872,7 +4853,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="31" t="s">
@@ -4915,7 +4896,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="31" t="s">
@@ -5161,7 +5142,7 @@
     </row>
     <row r="19" spans="1:14" ht="26" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>403</v>
@@ -5204,7 +5185,7 @@
     </row>
     <row r="20" spans="1:14" ht="26" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>403</v>
@@ -5247,7 +5228,7 @@
     </row>
     <row r="21" spans="1:14" ht="26" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>403</v>
@@ -5290,7 +5271,7 @@
     </row>
     <row r="22" spans="1:14" ht="26" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>403</v>
@@ -5335,7 +5316,7 @@
     </row>
     <row r="23" spans="1:14" ht="26" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>403</v>
@@ -5380,7 +5361,7 @@
     </row>
     <row r="24" spans="1:14" ht="26" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>403</v>
@@ -5425,7 +5406,7 @@
     </row>
     <row r="25" spans="1:14" ht="26" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>403</v>
@@ -5468,7 +5449,7 @@
     </row>
     <row r="26" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>403</v>
@@ -5480,7 +5461,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="104" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="133" t="s">
@@ -5921,10 +5902,10 @@
         <v>220</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F36" s="107" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>399</v>
@@ -5971,7 +5952,7 @@
         <v>719</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G37" s="106" t="s">
         <v>205</v>
@@ -6017,7 +5998,7 @@
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="106" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="30">
@@ -6100,13 +6081,13 @@
         <v>12000</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F40" s="107" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G40" s="106" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H40" s="31" t="s">
         <v>211</v>
@@ -6191,13 +6172,13 @@
         <v>2500</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F42" s="107" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G42" s="106" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>211</v>
@@ -7132,15 +7113,15 @@
         <v>214</v>
       </c>
       <c r="J63" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K63" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M63" s="26" t="str">
         <f t="shared" si="7"/>
@@ -7176,15 +7157,15 @@
         <v>215</v>
       </c>
       <c r="J64" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K64" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M64" s="26" t="str">
         <f t="shared" si="7"/>
@@ -7222,15 +7203,15 @@
         <v>542</v>
       </c>
       <c r="J65" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K65" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M65" s="26" t="str">
         <f t="shared" si="7"/>
@@ -7266,15 +7247,15 @@
         <v>216</v>
       </c>
       <c r="J66" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K66" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M66" s="26" t="str">
         <f t="shared" si="7"/>
@@ -7310,15 +7291,15 @@
         <v>217</v>
       </c>
       <c r="J67" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K67" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M67" s="26" t="str">
         <f t="shared" si="7"/>
@@ -7844,15 +7825,15 @@
         <v>214</v>
       </c>
       <c r="J79" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K79" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M79" s="26" t="str">
         <f t="shared" si="26"/>
@@ -7888,15 +7869,15 @@
         <v>215</v>
       </c>
       <c r="J80" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K80" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M80" s="26" t="str">
         <f t="shared" si="26"/>
@@ -7934,15 +7915,15 @@
         <v>542</v>
       </c>
       <c r="J81" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K81" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M81" s="26" t="str">
         <f t="shared" si="26"/>
@@ -7978,15 +7959,15 @@
         <v>216</v>
       </c>
       <c r="J82" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K82" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L82" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M82" s="26" t="str">
         <f t="shared" si="26"/>
@@ -8022,15 +8003,15 @@
         <v>217</v>
       </c>
       <c r="J83" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K83" s="35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M83" s="26" t="str">
         <f t="shared" si="26"/>
@@ -8556,15 +8537,15 @@
         <v>214</v>
       </c>
       <c r="J95" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K95" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M95" s="26" t="str">
         <f t="shared" si="26"/>
@@ -8600,15 +8581,15 @@
         <v>215</v>
       </c>
       <c r="J96" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K96" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L96" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M96" s="26" t="str">
         <f t="shared" si="26"/>
@@ -8646,15 +8627,15 @@
         <v>542</v>
       </c>
       <c r="J97" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K97" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L97" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M97" s="26" t="str">
         <f t="shared" si="26"/>
@@ -8690,15 +8671,15 @@
         <v>216</v>
       </c>
       <c r="J98" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K98" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M98" s="26" t="str">
         <f t="shared" si="26"/>
@@ -8734,15 +8715,15 @@
         <v>217</v>
       </c>
       <c r="J99" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K99" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M99" s="26" t="str">
         <f t="shared" si="26"/>
@@ -9268,15 +9249,15 @@
         <v>214</v>
       </c>
       <c r="J111" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K111" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L111" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M111" s="26" t="str">
         <f t="shared" si="26"/>
@@ -9312,15 +9293,15 @@
         <v>215</v>
       </c>
       <c r="J112" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K112" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L112" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M112" s="26" t="str">
         <f t="shared" si="26"/>
@@ -9358,15 +9339,15 @@
         <v>542</v>
       </c>
       <c r="J113" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K113" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L113" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M113" s="26" t="str">
         <f t="shared" si="26"/>
@@ -9402,15 +9383,15 @@
         <v>216</v>
       </c>
       <c r="J114" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K114" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L114" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M114" s="26" t="str">
         <f t="shared" si="26"/>
@@ -9446,15 +9427,15 @@
         <v>217</v>
       </c>
       <c r="J115" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K115" s="35">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L115" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M115" s="26" t="str">
         <f t="shared" si="26"/>
@@ -9980,15 +9961,15 @@
         <v>214</v>
       </c>
       <c r="J127" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K127" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L127" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M127" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10024,15 +10005,15 @@
         <v>215</v>
       </c>
       <c r="J128" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K128" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L128" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M128" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10070,15 +10051,15 @@
         <v>542</v>
       </c>
       <c r="J129" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K129" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L129" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M129" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10114,15 +10095,15 @@
         <v>216</v>
       </c>
       <c r="J130" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K130" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L130" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M130" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10158,15 +10139,15 @@
         <v>217</v>
       </c>
       <c r="J131" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K131" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L131" s="26" t="str">
         <f t="shared" si="25"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M131" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10692,15 +10673,15 @@
         <v>214</v>
       </c>
       <c r="J143" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K143" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L143" s="26" t="str">
         <f t="shared" si="30"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M143" s="26" t="str">
         <f t="shared" si="31"/>
@@ -10736,15 +10717,15 @@
         <v>215</v>
       </c>
       <c r="J144" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K144" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L144" s="26" t="str">
         <f t="shared" si="30"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M144" s="26" t="str">
         <f t="shared" si="31"/>
@@ -10782,15 +10763,15 @@
         <v>542</v>
       </c>
       <c r="J145" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K145" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L145" s="26" t="str">
         <f t="shared" si="30"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M145" s="26" t="str">
         <f t="shared" si="31"/>
@@ -10826,15 +10807,15 @@
         <v>216</v>
       </c>
       <c r="J146" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K146" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L146" s="26" t="str">
         <f t="shared" si="30"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M146" s="26" t="str">
         <f t="shared" si="31"/>
@@ -10870,15 +10851,15 @@
         <v>217</v>
       </c>
       <c r="J147" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K147" s="35">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L147" s="26" t="str">
         <f t="shared" si="30"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M147" s="26" t="str">
         <f t="shared" si="31"/>
@@ -12003,19 +11984,19 @@
     </row>
     <row r="173" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A173" s="36" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B173" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D173" s="29">
         <v>150</v>
       </c>
       <c r="E173" s="47" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F173" s="146"/>
       <c r="G173" s="147" t="s">
@@ -12048,19 +12029,19 @@
     </row>
     <row r="174" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A174" s="36" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B174" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D174" s="29">
         <v>12</v>
       </c>
       <c r="E174" s="47" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F174" s="146"/>
       <c r="G174" s="147" t="s">
@@ -12068,7 +12049,7 @@
       </c>
       <c r="H174" s="148"/>
       <c r="I174" s="146" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J174" s="149" t="s">
         <v>405</v>
@@ -12093,19 +12074,19 @@
     </row>
     <row r="175" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A175" s="36" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B175" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C175" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D175" s="29">
         <v>150</v>
       </c>
       <c r="E175" s="47" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F175" s="146"/>
       <c r="G175" s="147" t="s">
@@ -12138,19 +12119,19 @@
     </row>
     <row r="176" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A176" s="36" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B176" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D176" s="29">
         <v>150</v>
       </c>
       <c r="E176" s="47" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F176" s="146"/>
       <c r="G176" s="147" t="s">
@@ -12183,19 +12164,19 @@
     </row>
     <row r="177" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A177" s="36" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B177" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D177" s="29">
         <v>40</v>
       </c>
       <c r="E177" s="47" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F177" s="146"/>
       <c r="G177" s="147" t="s">
@@ -12228,19 +12209,19 @@
     </row>
     <row r="178" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A178" s="36" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B178" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C178" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D178" s="29">
         <v>50</v>
       </c>
       <c r="E178" s="47" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F178" s="146"/>
       <c r="G178" s="147" t="s">
@@ -12273,19 +12254,19 @@
     </row>
     <row r="179" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A179" s="36" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B179" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D179" s="29">
         <v>3</v>
       </c>
       <c r="E179" s="47" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F179" s="146"/>
       <c r="G179" s="147" t="s">
@@ -12318,19 +12299,19 @@
     </row>
     <row r="180" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A180" s="36" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B180" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D180" s="29">
         <v>55</v>
       </c>
       <c r="E180" s="47" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F180" s="146"/>
       <c r="G180" s="147" t="s">
@@ -12363,19 +12344,19 @@
     </row>
     <row r="181" spans="1:15" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A181" s="36" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B181" s="29" t="s">
         <v>403</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D181" s="29">
         <v>30</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F181" s="146"/>
       <c r="G181" s="147" t="s">
@@ -12454,7 +12435,7 @@
     </row>
     <row r="183" spans="1:15" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B183" s="24" t="s">
         <v>403</v>
@@ -12476,7 +12457,7 @@
         <v>208</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J183" s="39" t="s">
         <v>405</v>
@@ -12868,7 +12849,7 @@
     </row>
     <row r="192" spans="1:15" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B192" s="24" t="s">
         <v>403</v>
@@ -12890,7 +12871,7 @@
         <v>209</v>
       </c>
       <c r="I192" s="18" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J192" s="39" t="s">
         <v>405</v>
@@ -13236,7 +13217,7 @@
     </row>
     <row r="200" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B200" s="24" t="s">
         <v>403</v>
@@ -13282,7 +13263,7 @@
     </row>
     <row r="201" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B201" s="24" t="s">
         <v>403</v>
@@ -13304,7 +13285,7 @@
         <v>210</v>
       </c>
       <c r="I201" s="18" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J201" s="39" t="s">
         <v>405</v>
@@ -13328,7 +13309,7 @@
     </row>
     <row r="202" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B202" s="24" t="s">
         <v>403</v>
@@ -13374,7 +13355,7 @@
     </row>
     <row r="203" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B203" s="24" t="s">
         <v>403</v>
@@ -13420,7 +13401,7 @@
     </row>
     <row r="204" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B204" s="24" t="s">
         <v>403</v>
@@ -13466,7 +13447,7 @@
     </row>
     <row r="205" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B205" s="24" t="s">
         <v>403</v>
@@ -13512,7 +13493,7 @@
     </row>
     <row r="206" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B206" s="24" t="s">
         <v>403</v>
@@ -13558,7 +13539,7 @@
     </row>
     <row r="207" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B207" s="24" t="s">
         <v>403</v>
@@ -13604,7 +13585,7 @@
     </row>
     <row r="208" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B208" s="24" t="s">
         <v>403</v>
@@ -13650,7 +13631,7 @@
     </row>
     <row r="209" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B209" s="24" t="s">
         <v>403</v>
@@ -13665,7 +13646,7 @@
         <v>563</v>
       </c>
       <c r="F209" s="106" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G209" s="31" t="s">
         <v>204</v>
@@ -13695,7 +13676,7 @@
     </row>
     <row r="210" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>403</v>
@@ -13738,7 +13719,7 @@
     </row>
     <row r="211" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>403</v>
@@ -13781,7 +13762,7 @@
     </row>
     <row r="212" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B212" s="24" t="s">
         <v>403</v>
@@ -13824,7 +13805,7 @@
     </row>
     <row r="213" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="28" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B213" s="24" t="s">
         <v>403</v>
@@ -13867,7 +13848,7 @@
     </row>
     <row r="214" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B214" s="24" t="s">
         <v>403</v>
@@ -13910,7 +13891,7 @@
     </row>
     <row r="215" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B215" s="24" t="s">
         <v>403</v>
@@ -13953,7 +13934,7 @@
     </row>
     <row r="216" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="28" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B216" s="24" t="s">
         <v>403</v>
@@ -13996,7 +13977,7 @@
     </row>
     <row r="217" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="28" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B217" s="24" t="s">
         <v>403</v>
@@ -14039,7 +14020,7 @@
     </row>
     <row r="218" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B218" s="24" t="s">
         <v>403</v>
@@ -14082,7 +14063,7 @@
     </row>
     <row r="219" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B219" s="24" t="s">
         <v>403</v>
@@ -14789,16 +14770,16 @@
         <v>403</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D235" s="29">
         <v>1</v>
       </c>
       <c r="E235" s="47" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F235" s="133" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G235" s="134" t="s">
         <v>711</v>
@@ -17011,13 +16992,13 @@
         <v>1100</v>
       </c>
       <c r="E285" s="104" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F285" s="107" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G285" s="106" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H285" s="31" t="s">
         <v>211</v>
@@ -17046,7 +17027,7 @@
     </row>
     <row r="286" spans="1:14" s="11" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A286" s="28" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B286" s="24" t="s">
         <v>403</v>
@@ -17061,7 +17042,7 @@
         <v>563</v>
       </c>
       <c r="F286" s="106" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G286" s="31" t="s">
         <v>204</v>
@@ -17104,8 +17085,8 @@
       <c r="D287" s="24">
         <v>1</v>
       </c>
-      <c r="E287" s="104" t="s">
-        <v>758</v>
+      <c r="E287" s="47" t="s">
+        <v>899</v>
       </c>
       <c r="F287" s="25"/>
       <c r="G287" s="31" t="s">
@@ -17192,10 +17173,10 @@
         <v>125</v>
       </c>
       <c r="E289" s="104" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F289" s="107" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G289" s="31" t="s">
         <v>757</v>
@@ -17204,7 +17185,7 @@
         <v>211</v>
       </c>
       <c r="I289" s="25" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J289" s="39" t="s">
         <v>415</v>
@@ -17283,10 +17264,10 @@
         <v>1600</v>
       </c>
       <c r="E291" s="32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F291" s="107" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G291" s="31" t="s">
         <v>757</v>
@@ -17421,13 +17402,13 @@
         <v>75</v>
       </c>
       <c r="E294" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F294" s="107" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G294" s="106" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H294" s="106" t="s">
         <v>211</v>
@@ -17735,7 +17716,7 @@
         <v>204</v>
       </c>
       <c r="H301" s="106" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I301" s="30" t="s">
         <v>472</v>
@@ -17823,7 +17804,7 @@
         <v>204</v>
       </c>
       <c r="H303" s="106" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I303" s="30">
         <v>9700</v>
@@ -17868,7 +17849,7 @@
         <v>204</v>
       </c>
       <c r="H304" s="106" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I304" s="30" t="s">
         <v>200</v>
@@ -17913,7 +17894,7 @@
         <v>204</v>
       </c>
       <c r="H305" s="106" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I305" s="30">
         <v>2100</v>
@@ -17958,7 +17939,7 @@
         <v>204</v>
       </c>
       <c r="H306" s="106" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I306" s="30" t="s">
         <v>201</v>
@@ -17995,15 +17976,15 @@
       <c r="D307" s="29">
         <v>6</v>
       </c>
-      <c r="E307" s="32" t="s">
-        <v>784</v>
+      <c r="E307" s="47" t="s">
+        <v>900</v>
       </c>
       <c r="F307" s="25"/>
       <c r="G307" s="31" t="s">
         <v>204</v>
       </c>
       <c r="H307" s="106" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I307" s="30" t="s">
         <v>549</v>
@@ -19453,7 +19434,7 @@
     </row>
     <row r="340" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="139" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B340" s="140" t="s">
         <v>403</v>
@@ -19465,7 +19446,7 @@
         <v>10</v>
       </c>
       <c r="E340" s="141" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F340" s="142"/>
       <c r="G340" s="143" t="s">
@@ -19473,31 +19454,31 @@
       </c>
       <c r="H340" s="144"/>
       <c r="I340" s="142" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J340" s="145" t="s">
         <v>415</v>
       </c>
       <c r="K340" s="35">
-        <f t="shared" ref="K340:K344" si="63">IF(J340="Public",1,IF(J340="FOUO",2,IF(J340="Sensitive",3,IF(J340="System-Only",4))))</f>
+        <f t="shared" ref="K340:K343" si="63">IF(J340="Public",1,IF(J340="FOUO",2,IF(J340="Sensitive",3,IF(J340="System-Only",4))))</f>
         <v>1</v>
       </c>
       <c r="L340" s="26" t="str">
-        <f t="shared" ref="L340:L344" si="64">IF(K340&lt;=1,"X","")</f>
+        <f t="shared" ref="L340:L343" si="64">IF(K340&lt;=1,"X","")</f>
         <v>X</v>
       </c>
       <c r="M340" s="26" t="str">
-        <f t="shared" ref="M340:M344" si="65">IF(K340&lt;=2,"X","")</f>
+        <f t="shared" ref="M340:M343" si="65">IF(K340&lt;=2,"X","")</f>
         <v>X</v>
       </c>
       <c r="N340" s="120" t="str">
-        <f t="shared" ref="N340:N344" si="66">IF(K340&lt;=3,"X","")</f>
+        <f t="shared" ref="N340:N343" si="66">IF(K340&lt;=3,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="341" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A341" s="139" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B341" s="140" t="s">
         <v>403</v>
@@ -19509,15 +19490,17 @@
         <v>10</v>
       </c>
       <c r="E341" s="141" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F341" s="142"/>
       <c r="G341" s="143" t="s">
         <v>757</v>
       </c>
-      <c r="H341" s="144"/>
+      <c r="H341" s="144" t="s">
+        <v>848</v>
+      </c>
       <c r="I341" s="142" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J341" s="145" t="s">
         <v>405</v>
@@ -19539,9 +19522,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="342" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A342" s="139" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B342" s="140" t="s">
         <v>403</v>
@@ -19553,17 +19536,17 @@
         <v>10</v>
       </c>
       <c r="E342" s="141" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F342" s="142"/>
       <c r="G342" s="143" t="s">
         <v>757</v>
       </c>
       <c r="H342" s="144" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I342" s="142" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J342" s="145" t="s">
         <v>405</v>
@@ -19585,9 +19568,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="343" spans="1:14" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A343" s="139" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B343" s="140" t="s">
         <v>403</v>
@@ -19599,17 +19582,17 @@
         <v>10</v>
       </c>
       <c r="E343" s="141" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F343" s="142"/>
       <c r="G343" s="143" t="s">
         <v>757</v>
       </c>
       <c r="H343" s="144" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I343" s="142" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J343" s="145" t="s">
         <v>405</v>
@@ -19633,7 +19616,7 @@
     </row>
     <row r="344" spans="1:14" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A344" s="139" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B344" s="140" t="s">
         <v>403</v>
@@ -19645,35 +19628,33 @@
         <v>10</v>
       </c>
       <c r="E344" s="141" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F344" s="142"/>
       <c r="G344" s="143" t="s">
         <v>757</v>
       </c>
-      <c r="H344" s="144" t="s">
-        <v>852</v>
-      </c>
+      <c r="H344" s="144"/>
       <c r="I344" s="142" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J344" s="145" t="s">
         <v>405</v>
       </c>
       <c r="K344" s="35">
-        <f t="shared" si="63"/>
+        <f>IF(J344="Public",1,IF(J344="FOUO",2,IF(J344="Sensitive",3,IF(J344="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="L344" s="26" t="str">
-        <f t="shared" si="64"/>
+        <f>IF(K344&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="M344" s="26" t="str">
-        <f t="shared" si="65"/>
+        <f>IF(K344&lt;=2,"X","")</f>
         <v>X</v>
       </c>
       <c r="N344" s="120" t="str">
-        <f t="shared" si="66"/>
+        <f>IF(K344&lt;=3,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -19718,6 +19699,11 @@
       <c r="N345" s="122" t="str">
         <f t="shared" si="62"/>
         <v>X</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -19730,53 +19716,43 @@
     <mergeCell ref="J2:N2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="L27:N172 L236:N339 L345:N345 L6:N25 L182:N234">
-    <cfRule type="expression" dxfId="11" priority="14">
+  <conditionalFormatting sqref="L27:N172 L6:N25 L182:N234 L236:N345">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>(L6="X")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:N172 L236:N339 L345:N345 L6:N25 L182:N234">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+  <conditionalFormatting sqref="L27:N172 L6:N25 L182:N234 L236:N345">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:N5">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>(L5="X")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:N5">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:N26">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>(L26="X")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:N26">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L235:N235">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>(L235="X")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L235:N235">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"CSV Only"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L340:N344">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>(L340="X")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L340:N344">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19791,7 +19767,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G172 G182:G345" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G172 G182:G340 G341:G345" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>MandatoryOptional</formula1>
     </dataValidation>
   </dataValidations>
@@ -19865,7 +19841,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -19877,7 +19853,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -20896,26 +20872,26 @@
     </row>
     <row r="138" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B138" s="123" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C138" s="77" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B139" s="123" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C139" s="77" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="140" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B140" s="123" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C140" s="77" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
@@ -20962,7 +20938,7 @@
     </row>
     <row r="149" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="167" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D149" s="168"/>
       <c r="E149" s="168"/>
@@ -21022,7 +20998,7 @@
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.6">
       <c r="B170" s="124" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="171" spans="2:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -21053,7 +21029,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="86" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E173" s="87">
         <v>7500000</v>
@@ -21068,14 +21044,14 @@
         <v>2</v>
       </c>
       <c r="D174" s="90" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E174" s="91">
         <v>19000000</v>
       </c>
       <c r="F174" s="92"/>
       <c r="H174" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="175" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
@@ -21086,7 +21062,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="90" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E175" s="91">
         <v>19000000</v>
@@ -21102,7 +21078,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="94" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E176" s="95">
         <v>36500000</v>
@@ -21120,7 +21096,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="90" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E177" s="91">
         <v>27500000</v>
@@ -21129,13 +21105,13 @@
     </row>
     <row r="178" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="B178" s="130" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C178" s="90">
         <v>1</v>
       </c>
       <c r="D178" s="90" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E178" s="91">
         <v>15000000</v>
@@ -21147,13 +21123,13 @@
     </row>
     <row r="179" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="B179" s="130" t="s">
+        <v>795</v>
+      </c>
+      <c r="C179" s="90">
+        <v>2</v>
+      </c>
+      <c r="D179" s="90" t="s">
         <v>797</v>
-      </c>
-      <c r="C179" s="90">
-        <v>2</v>
-      </c>
-      <c r="D179" s="90" t="s">
-        <v>799</v>
       </c>
       <c r="E179" s="91">
         <v>15000000</v>
@@ -21171,7 +21147,7 @@
         <v>1</v>
       </c>
       <c r="D180" s="90" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E180" s="91">
         <v>15000000</v>
@@ -21189,7 +21165,7 @@
         <v>2</v>
       </c>
       <c r="D181" s="90" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E181" s="91">
         <v>27500000</v>
@@ -21207,7 +21183,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="90" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E182" s="91">
         <v>27500000</v>
@@ -21225,7 +21201,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="90" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E183" s="91">
         <v>38500000</v>
@@ -21240,7 +21216,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="90" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E184" s="91">
         <v>27500000</v>
@@ -21258,7 +21234,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="90" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E185" s="91">
         <v>38500000</v>
@@ -21276,7 +21252,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="90" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E186" s="91">
         <v>27500000</v>
@@ -21292,7 +21268,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="90" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E187" s="91">
         <v>38500000</v>
@@ -21307,7 +21283,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="90" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E188" s="91">
         <v>27500000</v>
@@ -21322,7 +21298,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="90" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E189" s="91">
         <v>38500000</v>
@@ -21337,7 +21313,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="90" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E190" s="91">
         <v>15000000</v>
@@ -21352,7 +21328,7 @@
         <v>2</v>
       </c>
       <c r="D191" s="90" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E191" s="91">
         <v>38500000</v>
@@ -21367,7 +21343,7 @@
         <v>3</v>
       </c>
       <c r="D192" s="90" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E192" s="91">
         <v>38500000</v>
@@ -21382,7 +21358,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="90" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E193" s="91">
         <v>38500000</v>
@@ -21397,7 +21373,7 @@
         <v>1</v>
       </c>
       <c r="D194" s="90" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E194" s="91">
         <v>27500000</v>
@@ -21412,7 +21388,7 @@
         <v>2</v>
       </c>
       <c r="D195" s="90" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E195" s="91"/>
       <c r="F195" s="92">
@@ -21421,13 +21397,13 @@
     </row>
     <row r="196" spans="2:6" ht="46.5" x14ac:dyDescent="0.25">
       <c r="B196" s="130" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C196" s="90">
         <v>1</v>
       </c>
       <c r="D196" s="90" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E196" s="91"/>
       <c r="F196" s="92">
@@ -21436,13 +21412,13 @@
     </row>
     <row r="197" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="B197" s="130" t="s">
+        <v>806</v>
+      </c>
+      <c r="C197" s="90">
+        <v>2</v>
+      </c>
+      <c r="D197" s="90" t="s">
         <v>808</v>
-      </c>
-      <c r="C197" s="90">
-        <v>2</v>
-      </c>
-      <c r="D197" s="90" t="s">
-        <v>810</v>
       </c>
       <c r="E197" s="91"/>
       <c r="F197" s="92">
@@ -21451,13 +21427,13 @@
     </row>
     <row r="198" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="B198" s="130" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C198" s="90">
         <v>3</v>
       </c>
       <c r="D198" s="90" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E198" s="91"/>
       <c r="F198" s="92">
@@ -21466,13 +21442,13 @@
     </row>
     <row r="199" spans="2:6" ht="31" x14ac:dyDescent="0.25">
       <c r="B199" s="130" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C199" s="90">
         <v>4</v>
       </c>
       <c r="D199" s="90" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E199" s="91"/>
       <c r="F199" s="92">
@@ -21487,7 +21463,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="90" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E200" s="91">
         <v>20500000</v>
@@ -21502,7 +21478,7 @@
         <v>2</v>
       </c>
       <c r="D201" s="90" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E201" s="91"/>
       <c r="F201" s="92">
@@ -21517,7 +21493,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="90" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E202" s="91">
         <v>15000000</v>
@@ -21532,7 +21508,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="98" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E203" s="99">
         <v>38500000</v>
@@ -21541,7 +21517,7 @@
     </row>
     <row r="206" spans="2:6" ht="30" x14ac:dyDescent="0.6">
       <c r="B206" s="124" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="207" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -22101,12 +22077,12 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/_apidocs/sam-entity-extracts-api/v1/SAM_MASTER_EXTRACT_MAPPING v6.0.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM_MASTER_EXTRACT_MAPPING v6.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\E04TCK-XDVCFP1\RedirAE$\jyothirmayichavali\Desktop\PI40\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\E04BMK-XDVCFP1\RedirAE$\jyothirmayichavali\Desktop\PI44\Iteration3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB778CB6-A20C-4EAD-ACE2-8A2F368B2C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6AC2B-517C-4DB5-A2D4-C68AA9333C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Element Mapping" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop Down List" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Element Mapping'!$A$4:$N$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Element Mapping'!$A$4:$N$344</definedName>
     <definedName name="MandatoryOptional">'Drop Down List'!$B$3:$B$11</definedName>
     <definedName name="XML_Sections">'Drop Down List'!$G$3:$G$7</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="900">
   <si>
     <t>SAM DATA ELEMENT LIST</t>
   </si>
@@ -1405,12 +1405,6 @@
   </si>
   <si>
     <t>ACCOUNTS PAYABLE POC EMAIL</t>
-  </si>
-  <si>
-    <t>MPIN</t>
-  </si>
-  <si>
-    <t>12345A789</t>
   </si>
   <si>
     <t>NAICS EXCEPTION COUNTER</t>
@@ -4272,32 +4266,32 @@
   <sheetPr>
     <tabColor rgb="FF000080"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="A283" sqref="A283:XFD283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="65.26171875" customWidth="1"/>
+    <col min="2" max="2" width="11.41796875" customWidth="1"/>
+    <col min="3" max="3" width="25.26171875" customWidth="1"/>
+    <col min="4" max="4" width="8.26171875" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
     <col min="6" max="6" width="59" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.41796875" customWidth="1"/>
+    <col min="8" max="8" width="34.26171875" customWidth="1"/>
+    <col min="9" max="9" width="50.68359375" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="26" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.26171875" customWidth="1"/>
+    <col min="12" max="12" width="9.26171875" customWidth="1"/>
+    <col min="13" max="13" width="12.83984375" customWidth="1"/>
+    <col min="14" max="14" width="18.41796875" customWidth="1"/>
+    <col min="15" max="26" width="9.26171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
@@ -4434,10 +4428,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -5815,7 +5809,7 @@
         <v>88</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K29" s="20">
         <v>2</v>
@@ -5872,7 +5866,7 @@
         <v>88</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K30" s="20">
         <v>2</v>
@@ -6268,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K37" s="20">
         <v>2</v>
@@ -7731,7 +7725,7 @@
         <v>166</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K63" s="20">
         <f t="shared" si="3"/>
@@ -7787,7 +7781,7 @@
         <v>168</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K64" s="20">
         <f t="shared" si="3"/>
@@ -7845,7 +7839,7 @@
         <v>171</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K65" s="20">
         <f t="shared" si="3"/>
@@ -7901,7 +7895,7 @@
         <v>173</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K66" s="20">
         <f t="shared" si="3"/>
@@ -7957,7 +7951,7 @@
         <v>175</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K67" s="20">
         <f t="shared" si="3"/>
@@ -8635,7 +8629,7 @@
         <v>166</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K79" s="20">
         <f t="shared" si="3"/>
@@ -8691,7 +8685,7 @@
         <v>168</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K80" s="20">
         <f t="shared" si="3"/>
@@ -8749,7 +8743,7 @@
         <v>171</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K81" s="20">
         <f t="shared" si="3"/>
@@ -8805,7 +8799,7 @@
         <v>173</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K82" s="20">
         <f t="shared" si="3"/>
@@ -8861,7 +8855,7 @@
         <v>175</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K83" s="20">
         <f t="shared" si="3"/>
@@ -9539,7 +9533,7 @@
         <v>166</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K95" s="20">
         <f t="shared" si="4"/>
@@ -9595,7 +9589,7 @@
         <v>168</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K96" s="20">
         <f t="shared" si="4"/>
@@ -9653,7 +9647,7 @@
         <v>171</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K97" s="20">
         <f t="shared" si="4"/>
@@ -9709,7 +9703,7 @@
         <v>173</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K98" s="20">
         <f t="shared" si="4"/>
@@ -9765,7 +9759,7 @@
         <v>175</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K99" s="20">
         <f t="shared" si="4"/>
@@ -10443,7 +10437,7 @@
         <v>166</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K111" s="20">
         <f t="shared" si="4"/>
@@ -10499,7 +10493,7 @@
         <v>168</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K112" s="20">
         <f t="shared" si="4"/>
@@ -10557,7 +10551,7 @@
         <v>171</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K113" s="20">
         <f t="shared" si="4"/>
@@ -10613,7 +10607,7 @@
         <v>173</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K114" s="20">
         <f t="shared" si="4"/>
@@ -10669,7 +10663,7 @@
         <v>175</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K115" s="20">
         <f t="shared" si="4"/>
@@ -11347,7 +11341,7 @@
         <v>166</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K127" s="20">
         <f t="shared" si="5"/>
@@ -11403,7 +11397,7 @@
         <v>168</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K128" s="20">
         <f t="shared" si="5"/>
@@ -11461,7 +11455,7 @@
         <v>171</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K129" s="20">
         <f t="shared" si="5"/>
@@ -11517,7 +11511,7 @@
         <v>173</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K130" s="20">
         <f t="shared" si="5"/>
@@ -11573,7 +11567,7 @@
         <v>175</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K131" s="20">
         <f t="shared" si="5"/>
@@ -12251,7 +12245,7 @@
         <v>166</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K143" s="20">
         <f t="shared" si="5"/>
@@ -12307,7 +12301,7 @@
         <v>168</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K144" s="20">
         <f t="shared" si="5"/>
@@ -12365,7 +12359,7 @@
         <v>171</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K145" s="20">
         <f t="shared" si="5"/>
@@ -12421,7 +12415,7 @@
         <v>173</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K146" s="20">
         <f t="shared" si="5"/>
@@ -12477,7 +12471,7 @@
         <v>175</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K147" s="20">
         <f t="shared" si="5"/>
@@ -12533,7 +12527,7 @@
         <v>146</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K148" s="20">
         <f t="shared" ref="K148:K179" si="6">IF(J148="Public",1,IF(J148="FOUO (CUI)",2,IF(J148="Sensitive (CUI)",3,IF(J148="System-Only",4))))</f>
@@ -12589,7 +12583,7 @@
         <v>37</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K149" s="20">
         <f t="shared" si="6"/>
@@ -12645,7 +12639,7 @@
         <v>149</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K150" s="20">
         <f t="shared" si="6"/>
@@ -12701,7 +12695,7 @@
         <v>151</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K151" s="20">
         <f t="shared" si="6"/>
@@ -12757,7 +12751,7 @@
         <v>153</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K152" s="20">
         <f t="shared" si="6"/>
@@ -12813,7 +12807,7 @@
         <v>155</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K153" s="20">
         <f t="shared" si="6"/>
@@ -12869,7 +12863,7 @@
         <v>157</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K154" s="20">
         <f t="shared" si="6"/>
@@ -12927,7 +12921,7 @@
         <v>159</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K155" s="20">
         <f t="shared" si="6"/>
@@ -12983,7 +12977,7 @@
         <v>161</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K156" s="20">
         <f t="shared" si="6"/>
@@ -13039,7 +13033,7 @@
         <v>78</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K157" s="20">
         <f t="shared" si="6"/>
@@ -13097,7 +13091,7 @@
         <v>164</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K158" s="20">
         <f t="shared" si="6"/>
@@ -13155,7 +13149,7 @@
         <v>166</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K159" s="20">
         <f t="shared" si="6"/>
@@ -13211,7 +13205,7 @@
         <v>168</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K160" s="20">
         <f t="shared" si="6"/>
@@ -13269,7 +13263,7 @@
         <v>171</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K161" s="20">
         <f t="shared" si="6"/>
@@ -13325,7 +13319,7 @@
         <v>173</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K162" s="20">
         <f t="shared" si="6"/>
@@ -13381,7 +13375,7 @@
         <v>175</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K163" s="20">
         <f t="shared" si="6"/>
@@ -13437,7 +13431,7 @@
         <v>146</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K164" s="20">
         <f t="shared" si="6"/>
@@ -13493,7 +13487,7 @@
         <v>37</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K165" s="20">
         <f t="shared" si="6"/>
@@ -13549,7 +13543,7 @@
         <v>149</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K166" s="20">
         <f t="shared" si="6"/>
@@ -13605,7 +13599,7 @@
         <v>151</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K167" s="20">
         <f t="shared" si="6"/>
@@ -13663,7 +13657,7 @@
         <v>166</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K168" s="20">
         <f t="shared" si="6"/>
@@ -13719,7 +13713,7 @@
         <v>168</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K169" s="20">
         <f t="shared" si="6"/>
@@ -13777,7 +13771,7 @@
         <v>171</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K170" s="20">
         <f t="shared" si="6"/>
@@ -13833,7 +13827,7 @@
         <v>173</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K171" s="20">
         <f t="shared" si="6"/>
@@ -13889,7 +13883,7 @@
         <v>175</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K172" s="20">
         <f t="shared" si="6"/>
@@ -13945,7 +13939,7 @@
         <v>284</v>
       </c>
       <c r="J173" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K173" s="38">
         <f t="shared" si="6"/>
@@ -14001,7 +13995,7 @@
         <v>287</v>
       </c>
       <c r="J174" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K174" s="38">
         <f t="shared" si="6"/>
@@ -14057,7 +14051,7 @@
         <v>63</v>
       </c>
       <c r="J175" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K175" s="38">
         <f t="shared" si="6"/>
@@ -14113,7 +14107,7 @@
         <v>65</v>
       </c>
       <c r="J176" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K176" s="38">
         <f t="shared" si="6"/>
@@ -14169,7 +14163,7 @@
         <v>67</v>
       </c>
       <c r="J177" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K177" s="38">
         <f t="shared" si="6"/>
@@ -14225,7 +14219,7 @@
         <v>296</v>
       </c>
       <c r="J178" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K178" s="38">
         <f t="shared" si="6"/>
@@ -14281,7 +14275,7 @@
         <v>78</v>
       </c>
       <c r="J179" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K179" s="38">
         <f t="shared" si="6"/>
@@ -14337,10 +14331,10 @@
         <v>70</v>
       </c>
       <c r="J180" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K180" s="38">
-        <f t="shared" ref="K180:K211" si="7">IF(J180="Public",1,IF(J180="FOUO (CUI)",2,IF(J180="Sensitive (CUI)",3,IF(J180="System-Only",4))))</f>
+        <f t="shared" ref="K180:K208" si="7">IF(J180="Public",1,IF(J180="FOUO (CUI)",2,IF(J180="Sensitive (CUI)",3,IF(J180="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="L180" s="41" t="str">
@@ -14393,7 +14387,7 @@
         <v>303</v>
       </c>
       <c r="J181" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K181" s="38">
         <f t="shared" si="7"/>
@@ -14451,7 +14445,7 @@
         <v>284</v>
       </c>
       <c r="J182" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K182" s="20">
         <f t="shared" si="7"/>
@@ -14509,7 +14503,7 @@
         <v>22</v>
       </c>
       <c r="J183" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K183" s="20">
         <f t="shared" si="7"/>
@@ -14567,7 +14561,7 @@
         <v>63</v>
       </c>
       <c r="J184" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K184" s="20">
         <f t="shared" si="7"/>
@@ -14625,7 +14619,7 @@
         <v>65</v>
       </c>
       <c r="J185" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K185" s="20">
         <f t="shared" si="7"/>
@@ -14683,7 +14677,7 @@
         <v>67</v>
       </c>
       <c r="J186" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K186" s="20">
         <f t="shared" si="7"/>
@@ -14741,7 +14735,7 @@
         <v>296</v>
       </c>
       <c r="J187" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K187" s="20">
         <f t="shared" si="7"/>
@@ -14799,7 +14793,7 @@
         <v>78</v>
       </c>
       <c r="J188" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K188" s="20">
         <f t="shared" si="7"/>
@@ -14857,7 +14851,7 @@
         <v>70</v>
       </c>
       <c r="J189" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K189" s="20">
         <f t="shared" si="7"/>
@@ -14915,7 +14909,7 @@
         <v>303</v>
       </c>
       <c r="J190" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K190" s="20">
         <f t="shared" si="7"/>
@@ -14973,7 +14967,7 @@
         <v>284</v>
       </c>
       <c r="J191" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K191" s="20">
         <f t="shared" si="7"/>
@@ -15031,7 +15025,7 @@
         <v>22</v>
       </c>
       <c r="J192" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K192" s="20">
         <f t="shared" si="7"/>
@@ -15089,7 +15083,7 @@
         <v>63</v>
       </c>
       <c r="J193" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K193" s="20">
         <f t="shared" si="7"/>
@@ -15147,7 +15141,7 @@
         <v>65</v>
       </c>
       <c r="J194" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K194" s="20">
         <f t="shared" si="7"/>
@@ -15205,7 +15199,7 @@
         <v>67</v>
       </c>
       <c r="J195" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K195" s="20">
         <f t="shared" si="7"/>
@@ -15263,7 +15257,7 @@
         <v>296</v>
       </c>
       <c r="J196" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K196" s="20">
         <f t="shared" si="7"/>
@@ -15321,7 +15315,7 @@
         <v>78</v>
       </c>
       <c r="J197" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K197" s="20">
         <f t="shared" si="7"/>
@@ -15379,7 +15373,7 @@
         <v>70</v>
       </c>
       <c r="J198" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K198" s="20">
         <f t="shared" si="7"/>
@@ -15437,7 +15431,7 @@
         <v>303</v>
       </c>
       <c r="J199" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K199" s="20">
         <f t="shared" si="7"/>
@@ -15495,7 +15489,7 @@
         <v>284</v>
       </c>
       <c r="J200" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K200" s="20">
         <f t="shared" si="7"/>
@@ -15553,7 +15547,7 @@
         <v>22</v>
       </c>
       <c r="J201" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K201" s="20">
         <f t="shared" si="7"/>
@@ -15611,7 +15605,7 @@
         <v>63</v>
       </c>
       <c r="J202" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K202" s="20">
         <f t="shared" si="7"/>
@@ -15669,7 +15663,7 @@
         <v>65</v>
       </c>
       <c r="J203" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K203" s="20">
         <f t="shared" si="7"/>
@@ -15727,7 +15721,7 @@
         <v>67</v>
       </c>
       <c r="J204" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K204" s="20">
         <f t="shared" si="7"/>
@@ -15785,7 +15779,7 @@
         <v>296</v>
       </c>
       <c r="J205" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K205" s="20">
         <f t="shared" si="7"/>
@@ -15843,7 +15837,7 @@
         <v>78</v>
       </c>
       <c r="J206" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K206" s="20">
         <f t="shared" si="7"/>
@@ -15901,7 +15895,7 @@
         <v>70</v>
       </c>
       <c r="J207" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K207" s="20">
         <f t="shared" si="7"/>
@@ -15959,7 +15953,7 @@
         <v>303</v>
       </c>
       <c r="J208" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K208" s="20">
         <f t="shared" si="7"/>
@@ -16017,7 +16011,7 @@
         <v>128</v>
       </c>
       <c r="J209" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K209" s="20">
         <v>2</v>
@@ -16072,7 +16066,7 @@
         <v>338</v>
       </c>
       <c r="J210" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K210" s="20">
         <v>2</v>
@@ -16127,7 +16121,7 @@
         <v>341</v>
       </c>
       <c r="J211" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K211" s="20">
         <v>2</v>
@@ -16182,7 +16176,7 @@
         <v>343</v>
       </c>
       <c r="J212" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K212" s="20">
         <v>2</v>
@@ -16237,7 +16231,7 @@
         <v>55</v>
       </c>
       <c r="J213" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K213" s="20">
         <v>2</v>
@@ -16292,7 +16286,7 @@
         <v>346</v>
       </c>
       <c r="J214" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K214" s="20">
         <v>2</v>
@@ -16347,7 +16341,7 @@
         <v>348</v>
       </c>
       <c r="J215" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K215" s="20">
         <v>2</v>
@@ -16402,7 +16396,7 @@
         <v>67</v>
       </c>
       <c r="J216" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K216" s="20">
         <v>2</v>
@@ -16457,7 +16451,7 @@
         <v>351</v>
       </c>
       <c r="J217" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K217" s="20">
         <v>2</v>
@@ -16512,7 +16506,7 @@
         <v>78</v>
       </c>
       <c r="J218" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K218" s="20">
         <v>2</v>
@@ -16567,7 +16561,7 @@
         <v>70</v>
       </c>
       <c r="J219" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K219" s="20">
         <v>2</v>
@@ -16622,7 +16616,7 @@
         <v>355</v>
       </c>
       <c r="J220" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K220" s="20">
         <v>2</v>
@@ -16677,7 +16671,7 @@
         <v>357</v>
       </c>
       <c r="J221" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K221" s="20">
         <v>2</v>
@@ -16732,7 +16726,7 @@
         <v>359</v>
       </c>
       <c r="J222" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K222" s="20">
         <v>2</v>
@@ -16787,7 +16781,7 @@
         <v>361</v>
       </c>
       <c r="J223" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K223" s="20">
         <v>2</v>
@@ -16842,7 +16836,7 @@
         <v>361</v>
       </c>
       <c r="J224" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K224" s="20">
         <v>2</v>
@@ -16897,7 +16891,7 @@
         <v>355</v>
       </c>
       <c r="J225" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K225" s="20">
         <v>2</v>
@@ -16952,7 +16946,7 @@
         <v>146</v>
       </c>
       <c r="J226" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K226" s="20">
         <f t="shared" ref="K226:K234" si="8">IF(J226="Public",1,IF(J226="FOUO (CUI)",2,IF(J226="Sensitive (CUI)",3,IF(J226="System-Only",4))))</f>
@@ -17008,7 +17002,7 @@
         <v>37</v>
       </c>
       <c r="J227" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K227" s="20">
         <f t="shared" si="8"/>
@@ -17064,7 +17058,7 @@
         <v>149</v>
       </c>
       <c r="J228" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K228" s="20">
         <f t="shared" si="8"/>
@@ -17120,7 +17114,7 @@
         <v>151</v>
       </c>
       <c r="J229" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K229" s="20">
         <f t="shared" si="8"/>
@@ -17178,7 +17172,7 @@
         <v>166</v>
       </c>
       <c r="J230" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K230" s="20">
         <f t="shared" si="8"/>
@@ -17234,7 +17228,7 @@
         <v>168</v>
       </c>
       <c r="J231" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K231" s="20">
         <f t="shared" si="8"/>
@@ -17292,7 +17286,7 @@
         <v>171</v>
       </c>
       <c r="J232" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K232" s="20">
         <f t="shared" si="8"/>
@@ -17348,7 +17342,7 @@
         <v>173</v>
       </c>
       <c r="J233" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K233" s="20">
         <f t="shared" si="8"/>
@@ -17404,7 +17398,7 @@
         <v>175</v>
       </c>
       <c r="J234" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K234" s="20">
         <f t="shared" si="8"/>
@@ -17462,7 +17456,7 @@
         <v>1</v>
       </c>
       <c r="J235" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K235" s="20">
         <v>3</v>
@@ -17517,7 +17511,7 @@
         <v>411112260</v>
       </c>
       <c r="J236" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K236" s="20">
         <v>3</v>
@@ -17574,7 +17568,7 @@
         <v>382</v>
       </c>
       <c r="J237" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K237" s="20">
         <v>2</v>
@@ -17631,7 +17625,7 @@
         <v>384</v>
       </c>
       <c r="J238" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K238" s="20">
         <v>2</v>
@@ -17688,7 +17682,7 @@
         <v>387</v>
       </c>
       <c r="J239" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K239" s="20">
         <v>3</v>
@@ -17745,7 +17739,7 @@
         <v>389</v>
       </c>
       <c r="J240" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K240" s="20">
         <v>3</v>
@@ -17802,7 +17796,7 @@
         <v>391</v>
       </c>
       <c r="J241" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K241" s="20">
         <v>3</v>
@@ -17859,7 +17853,7 @@
         <v>394</v>
       </c>
       <c r="J242" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K242" s="20">
         <v>3</v>
@@ -17914,7 +17908,7 @@
         <v>1026310</v>
       </c>
       <c r="J243" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K243" s="20">
         <v>3</v>
@@ -17969,7 +17963,7 @@
         <v>397</v>
       </c>
       <c r="J244" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K244" s="20">
         <v>3</v>
@@ -18024,7 +18018,7 @@
         <v>355</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K245" s="31">
         <v>3</v>
@@ -18081,7 +18075,7 @@
         <v>303</v>
       </c>
       <c r="J246" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K246" s="20">
         <v>3</v>
@@ -18138,7 +18132,7 @@
         <v>171</v>
       </c>
       <c r="J247" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K247" s="20">
         <v>3</v>
@@ -18195,7 +18189,7 @@
         <v>404</v>
       </c>
       <c r="J248" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K248" s="20">
         <v>3</v>
@@ -18252,7 +18246,7 @@
         <v>406</v>
       </c>
       <c r="J249" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K249" s="20">
         <v>3</v>
@@ -18307,7 +18301,7 @@
         <v>408</v>
       </c>
       <c r="J250" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K250" s="20">
         <v>3</v>
@@ -18362,7 +18356,7 @@
         <v>410</v>
       </c>
       <c r="J251" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K251" s="20">
         <v>3</v>
@@ -18417,7 +18411,7 @@
         <v>65</v>
       </c>
       <c r="J252" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K252" s="20">
         <v>3</v>
@@ -18472,7 +18466,7 @@
         <v>413</v>
       </c>
       <c r="J253" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K253" s="20">
         <v>3</v>
@@ -18529,7 +18523,7 @@
         <v>415</v>
       </c>
       <c r="J254" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K254" s="20">
         <v>3</v>
@@ -18586,7 +18580,7 @@
         <v>417</v>
       </c>
       <c r="J255" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K255" s="20">
         <v>3</v>
@@ -18641,7 +18635,7 @@
         <v>419</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K256" s="31">
         <v>3</v>
@@ -18696,7 +18690,7 @@
         <v>78</v>
       </c>
       <c r="J257" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K257" s="20">
         <v>3</v>
@@ -18751,7 +18745,7 @@
         <v>146</v>
       </c>
       <c r="J258" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K258" s="20">
         <f t="shared" ref="K258:K282" si="9">IF(J258="Public",1,IF(J258="FOUO (CUI)",2,IF(J258="Sensitive (CUI)",3,IF(J258="System-Only",4))))</f>
@@ -18807,7 +18801,7 @@
         <v>37</v>
       </c>
       <c r="J259" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K259" s="20">
         <f t="shared" si="9"/>
@@ -18863,22 +18857,22 @@
         <v>149</v>
       </c>
       <c r="J260" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K260" s="20">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="L260" s="23" t="str">
-        <f t="shared" ref="L260:L345" si="10">IF(K260&lt;=1,"X","")</f>
+        <f t="shared" ref="L260:L344" si="10">IF(K260&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="M260" s="23" t="str">
-        <f t="shared" ref="M260:M345" si="11">IF(K260&lt;=2,"X","")</f>
+        <f t="shared" ref="M260:M344" si="11">IF(K260&lt;=2,"X","")</f>
         <v>X</v>
       </c>
       <c r="N260" s="24" t="str">
-        <f t="shared" ref="N260:N345" si="12">IF(K260&lt;=3,"X","")</f>
+        <f t="shared" ref="N260:N344" si="12">IF(K260&lt;=3,"X","")</f>
         <v>X</v>
       </c>
       <c r="O260" s="5"/>
@@ -18919,7 +18913,7 @@
         <v>151</v>
       </c>
       <c r="J261" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K261" s="20">
         <f t="shared" si="9"/>
@@ -18977,7 +18971,7 @@
         <v>166</v>
       </c>
       <c r="J262" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K262" s="20">
         <f t="shared" si="9"/>
@@ -19033,7 +19027,7 @@
         <v>168</v>
       </c>
       <c r="J263" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K263" s="20">
         <f t="shared" si="9"/>
@@ -19091,7 +19085,7 @@
         <v>171</v>
       </c>
       <c r="J264" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K264" s="20">
         <f t="shared" si="9"/>
@@ -19147,7 +19141,7 @@
         <v>173</v>
       </c>
       <c r="J265" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K265" s="20">
         <f t="shared" si="9"/>
@@ -19203,7 +19197,7 @@
         <v>175</v>
       </c>
       <c r="J266" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K266" s="20">
         <f t="shared" si="9"/>
@@ -19259,7 +19253,7 @@
         <v>146</v>
       </c>
       <c r="J267" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K267" s="20">
         <f t="shared" si="9"/>
@@ -19315,7 +19309,7 @@
         <v>37</v>
       </c>
       <c r="J268" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K268" s="20">
         <f t="shared" si="9"/>
@@ -19371,7 +19365,7 @@
         <v>149</v>
       </c>
       <c r="J269" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K269" s="20">
         <f t="shared" si="9"/>
@@ -19427,7 +19421,7 @@
         <v>151</v>
       </c>
       <c r="J270" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K270" s="20">
         <f t="shared" si="9"/>
@@ -19483,7 +19477,7 @@
         <v>153</v>
       </c>
       <c r="J271" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K271" s="20">
         <f t="shared" si="9"/>
@@ -19539,7 +19533,7 @@
         <v>155</v>
       </c>
       <c r="J272" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K272" s="20">
         <f t="shared" si="9"/>
@@ -19595,7 +19589,7 @@
         <v>157</v>
       </c>
       <c r="J273" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K273" s="20">
         <f t="shared" si="9"/>
@@ -19653,7 +19647,7 @@
         <v>159</v>
       </c>
       <c r="J274" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K274" s="20">
         <f t="shared" si="9"/>
@@ -19711,7 +19705,7 @@
         <v>161</v>
       </c>
       <c r="J275" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K275" s="20">
         <f t="shared" si="9"/>
@@ -19767,7 +19761,7 @@
         <v>78</v>
       </c>
       <c r="J276" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K276" s="20">
         <f t="shared" si="9"/>
@@ -19825,7 +19819,7 @@
         <v>164</v>
       </c>
       <c r="J277" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K277" s="20">
         <f t="shared" si="9"/>
@@ -19883,7 +19877,7 @@
         <v>166</v>
       </c>
       <c r="J278" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K278" s="20">
         <f t="shared" si="9"/>
@@ -19939,7 +19933,7 @@
         <v>168</v>
       </c>
       <c r="J279" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K279" s="20">
         <f t="shared" si="9"/>
@@ -19997,7 +19991,7 @@
         <v>171</v>
       </c>
       <c r="J280" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K280" s="20">
         <f t="shared" si="9"/>
@@ -20053,7 +20047,7 @@
         <v>173</v>
       </c>
       <c r="J281" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K281" s="20">
         <f t="shared" si="9"/>
@@ -20109,7 +20103,7 @@
         <v>175</v>
       </c>
       <c r="J282" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K282" s="20">
         <f t="shared" si="9"/>
@@ -20140,7 +20134,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75" customHeight="1">
+    <row r="283" spans="1:26" ht="29.25" customHeight="1">
       <c r="A283" s="17" t="s">
         <v>446</v>
       </c>
@@ -20148,35 +20142,36 @@
         <v>18</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D283" s="18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E283" s="19" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="F283" s="20"/>
-      <c r="G283" s="21" t="s">
-        <v>28</v>
+      <c r="G283" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="H283" s="21"/>
-      <c r="I283" s="20" t="s">
-        <v>447</v>
+      <c r="I283" s="27" t="s">
+        <v>448</v>
       </c>
       <c r="J283" s="17" t="s">
-        <v>901</v>
+        <v>16</v>
       </c>
       <c r="K283" s="20">
-        <v>3</v>
+        <f>IF(J283="Public",1,IF(J283="FOUO (CUI)",2,IF(J283="Sensitive (CUI)",3,IF(J283="System-Only",4))))</f>
+        <v>1</v>
       </c>
       <c r="L283" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M283" s="23" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N283" s="24" t="str">
         <f t="shared" si="12"/>
@@ -20195,35 +20190,38 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284" spans="1:26" ht="29.25" customHeight="1">
+    <row r="284" spans="1:26" ht="55.5" customHeight="1">
       <c r="A284" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B284" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D284" s="18">
-        <v>4</v>
-      </c>
-      <c r="E284" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="F284" s="20"/>
+        <v>1100</v>
+      </c>
+      <c r="E284" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="F284" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="G284" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H284" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="H284" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="I284" s="27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J284" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K284" s="20">
-        <f>IF(J284="Public",1,IF(J284="FOUO (CUI)",2,IF(J284="Sensitive (CUI)",3,IF(J284="System-Only",4))))</f>
         <v>1</v>
       </c>
       <c r="L284" s="23" t="str">
@@ -20251,33 +20249,33 @@
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
     </row>
-    <row r="285" spans="1:26" ht="55.5" customHeight="1">
+    <row r="285" spans="1:26" ht="12.75" customHeight="1">
       <c r="A285" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B285" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>102</v>
+        <v>453</v>
       </c>
       <c r="D285" s="18">
-        <v>1100</v>
-      </c>
-      <c r="E285" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="F285" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G285" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H285" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I285" s="27" t="s">
-        <v>453</v>
+        <v>1</v>
+      </c>
+      <c r="E285" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F285" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="G285" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H285" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="I285" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="J285" s="17" t="s">
         <v>16</v>
@@ -20310,33 +20308,29 @@
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75" customHeight="1">
+    <row r="286" spans="1:26" ht="74.25" customHeight="1">
       <c r="A286" s="17" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B286" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C286" s="18" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D286" s="18">
         <v>1</v>
       </c>
       <c r="E286" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F286" s="22" t="s">
-        <v>456</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="F286" s="20"/>
       <c r="G286" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H286" s="22" t="s">
-        <v>457</v>
-      </c>
+      <c r="H286" s="21"/>
       <c r="I286" s="20" t="s">
-        <v>128</v>
+        <v>459</v>
       </c>
       <c r="J286" s="17" t="s">
         <v>16</v>
@@ -20369,34 +20363,35 @@
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
     </row>
-    <row r="287" spans="1:26" ht="74.25" customHeight="1">
+    <row r="287" spans="1:26" ht="12.75" customHeight="1">
       <c r="A287" s="17" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B287" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C287" s="18" t="s">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="D287" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E287" s="19" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F287" s="20"/>
       <c r="G287" s="21" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H287" s="21"/>
-      <c r="I287" s="20" t="s">
-        <v>461</v>
+      <c r="I287" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="J287" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K287" s="20">
+        <f>IF(J287="Public",1,IF(J287="FOUO (CUI)",2,IF(J287="Sensitive (CUI)",3,IF(J287="System-Only",4))))</f>
         <v>1</v>
       </c>
       <c r="L287" s="23" t="str">
@@ -20424,35 +20419,38 @@
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A288" s="17" t="s">
+    <row r="288" spans="1:26" ht="59.25" customHeight="1">
+      <c r="A288" s="30" t="s">
         <v>462</v>
       </c>
       <c r="B288" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C288" s="18" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D288" s="18">
-        <v>4</v>
-      </c>
-      <c r="E288" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E288" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="F288" s="20"/>
+      <c r="F288" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="G288" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H288" s="21"/>
-      <c r="I288" s="27" t="s">
-        <v>161</v>
+        <v>57</v>
+      </c>
+      <c r="H288" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I288" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="J288" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K288" s="20">
-        <f>IF(J288="Public",1,IF(J288="FOUO (CUI)",2,IF(J288="Sensitive (CUI)",3,IF(J288="System-Only",4))))</f>
         <v>1</v>
       </c>
       <c r="L288" s="23" t="str">
@@ -20480,43 +20478,40 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289" spans="1:26" ht="59.25" customHeight="1">
-      <c r="A289" s="30" t="s">
-        <v>464</v>
+    <row r="289" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A289" s="17" t="s">
+        <v>465</v>
       </c>
       <c r="B289" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C289" s="18" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D289" s="18">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="E289" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="F289" s="31" t="s">
-        <v>104</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="F289" s="20"/>
       <c r="G289" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H289" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I289" s="20" t="s">
-        <v>466</v>
+        <v>12</v>
+      </c>
+      <c r="H289" s="21"/>
+      <c r="I289" s="27" t="s">
+        <v>467</v>
       </c>
       <c r="J289" s="17" t="s">
-        <v>16</v>
+        <v>898</v>
       </c>
       <c r="K289" s="20">
-        <v>1</v>
+        <f>IF(J289="Public",1,IF(J289="FOUO (CUI)",2,IF(J289="Sensitive (CUI)",3,IF(J289="System-Only",4))))</f>
+        <v>2</v>
       </c>
       <c r="L289" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M289" s="23" t="str">
         <f t="shared" si="11"/>
@@ -20539,35 +20534,38 @@
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
     </row>
-    <row r="290" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A290" s="17" t="s">
-        <v>467</v>
+    <row r="290" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A290" s="30" t="s">
+        <v>468</v>
       </c>
       <c r="B290" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D290" s="18">
-        <v>4</v>
-      </c>
-      <c r="E290" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="F290" s="20"/>
+        <v>1600</v>
+      </c>
+      <c r="E290" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="F290" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="G290" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H290" s="21"/>
-      <c r="I290" s="27" t="s">
-        <v>469</v>
+        <v>57</v>
+      </c>
+      <c r="H290" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I290" s="20" t="s">
+        <v>470</v>
       </c>
       <c r="J290" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K290" s="20">
-        <f>IF(J290="Public",1,IF(J290="FOUO (CUI)",2,IF(J290="Sensitive (CUI)",3,IF(J290="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="L290" s="23" t="str">
@@ -20596,42 +20594,42 @@
       <c r="Z290" s="5"/>
     </row>
     <row r="291" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A291" s="30" t="s">
-        <v>470</v>
+      <c r="A291" s="17" t="s">
+        <v>471</v>
       </c>
       <c r="B291" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C291" s="18" t="s">
-        <v>102</v>
+        <v>472</v>
       </c>
       <c r="D291" s="18">
-        <v>1600</v>
+        <v>4</v>
       </c>
       <c r="E291" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="F291" s="31" t="s">
-        <v>104</v>
+        <v>24</v>
+      </c>
+      <c r="F291" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="G291" s="21" t="s">
         <v>57</v>
       </c>
       <c r="H291" s="21" t="s">
-        <v>105</v>
+        <v>474</v>
       </c>
       <c r="I291" s="20" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="J291" s="17" t="s">
-        <v>900</v>
+        <v>16</v>
       </c>
       <c r="K291" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L291" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M291" s="23" t="str">
         <f t="shared" si="11"/>
@@ -20656,36 +20654,33 @@
     </row>
     <row r="292" spans="1:26" ht="12.75" customHeight="1">
       <c r="A292" s="17" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B292" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C292" s="18" t="s">
-        <v>474</v>
+        <v>74</v>
       </c>
       <c r="D292" s="18">
         <v>4</v>
       </c>
       <c r="E292" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F292" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="G292" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H292" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="I292" s="20" t="s">
         <v>477</v>
+      </c>
+      <c r="F292" s="20"/>
+      <c r="G292" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H292" s="22"/>
+      <c r="I292" s="27" t="s">
+        <v>448</v>
       </c>
       <c r="J292" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K292" s="20">
+        <f>IF(J292="Public",1,IF(J292="FOUO (CUI)",2,IF(J292="Sensitive (CUI)",3,IF(J292="System-Only",4))))</f>
         <v>1</v>
       </c>
       <c r="L292" s="23" t="str">
@@ -20714,34 +20709,37 @@
       <c r="Z292" s="5"/>
     </row>
     <row r="293" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A293" s="17" t="s">
+      <c r="A293" s="30" t="s">
         <v>478</v>
       </c>
       <c r="B293" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C293" s="18" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D293" s="18">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="E293" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="F293" s="20"/>
+      <c r="F293" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="G293" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H293" s="22"/>
-      <c r="I293" s="27" t="s">
-        <v>450</v>
+        <v>124</v>
+      </c>
+      <c r="H293" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I293" s="20" t="s">
+        <v>480</v>
       </c>
       <c r="J293" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K293" s="20">
-        <f>IF(J293="Public",1,IF(J293="FOUO (CUI)",2,IF(J293="Sensitive (CUI)",3,IF(J293="System-Only",4))))</f>
         <v>1</v>
       </c>
       <c r="L293" s="23" t="str">
@@ -20770,42 +20768,38 @@
       <c r="Z293" s="5"/>
     </row>
     <row r="294" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A294" s="30" t="s">
-        <v>480</v>
+      <c r="A294" s="17" t="s">
+        <v>481</v>
       </c>
       <c r="B294" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C294" s="18" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="D294" s="18">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E294" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="F294" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G294" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H294" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I294" s="20" t="s">
         <v>482</v>
       </c>
+      <c r="F294" s="20"/>
+      <c r="G294" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H294" s="22"/>
+      <c r="I294" s="20">
+        <v>376916</v>
+      </c>
       <c r="J294" s="17" t="s">
-        <v>16</v>
+        <v>898</v>
       </c>
       <c r="K294" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L294" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M294" s="23" t="str">
         <f t="shared" si="11"/>
@@ -20839,24 +20833,24 @@
         <v>18</v>
       </c>
       <c r="D295" s="18">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E295" s="19" t="s">
-        <v>484</v>
+        <v>24</v>
       </c>
       <c r="F295" s="20"/>
-      <c r="G295" s="21" t="s">
-        <v>31</v>
+      <c r="G295" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="H295" s="22"/>
       <c r="I295" s="20">
-        <v>376916</v>
+        <v>5749</v>
       </c>
       <c r="J295" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K295" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L295" s="23" t="str">
         <f t="shared" si="10"/>
@@ -20864,7 +20858,7 @@
       </c>
       <c r="M295" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="N295" s="24" t="str">
         <f t="shared" si="12"/>
@@ -20885,7 +20879,7 @@
     </row>
     <row r="296" spans="1:26" ht="12.75" customHeight="1">
       <c r="A296" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B296" s="18" t="s">
         <v>18</v>
@@ -20894,21 +20888,21 @@
         <v>18</v>
       </c>
       <c r="D296" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E296" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F296" s="20"/>
-      <c r="G296" s="22" t="s">
-        <v>110</v>
+      <c r="G296" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="H296" s="22"/>
-      <c r="I296" s="20">
-        <v>5749</v>
+      <c r="I296" s="20" t="s">
+        <v>485</v>
       </c>
       <c r="J296" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K296" s="20">
         <v>3</v>
@@ -20949,7 +20943,7 @@
         <v>18</v>
       </c>
       <c r="D297" s="18">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="E297" s="19" t="s">
         <v>24</v>
@@ -20959,11 +20953,11 @@
         <v>31</v>
       </c>
       <c r="H297" s="22"/>
-      <c r="I297" s="20" t="s">
-        <v>487</v>
+      <c r="I297" s="20">
+        <v>38100080001</v>
       </c>
       <c r="J297" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K297" s="20">
         <v>3</v>
@@ -20995,7 +20989,7 @@
     </row>
     <row r="298" spans="1:26" ht="12.75" customHeight="1">
       <c r="A298" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B298" s="18" t="s">
         <v>18</v>
@@ -21015,10 +21009,10 @@
       </c>
       <c r="H298" s="22"/>
       <c r="I298" s="20">
-        <v>38100080001</v>
+        <v>32323720011</v>
       </c>
       <c r="J298" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K298" s="20">
         <v>3</v>
@@ -21050,7 +21044,7 @@
     </row>
     <row r="299" spans="1:26" ht="12.75" customHeight="1">
       <c r="A299" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B299" s="18" t="s">
         <v>18</v>
@@ -21059,7 +21053,7 @@
         <v>18</v>
       </c>
       <c r="D299" s="18">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="E299" s="19" t="s">
         <v>24</v>
@@ -21070,10 +21064,10 @@
       </c>
       <c r="H299" s="22"/>
       <c r="I299" s="20">
-        <v>32323720011</v>
+        <v>111111</v>
       </c>
       <c r="J299" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K299" s="20">
         <v>3</v>
@@ -21105,7 +21099,7 @@
     </row>
     <row r="300" spans="1:26" ht="12.75" customHeight="1">
       <c r="A300" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B300" s="18" t="s">
         <v>18</v>
@@ -21114,24 +21108,28 @@
         <v>18</v>
       </c>
       <c r="D300" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E300" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F300" s="20"/>
-      <c r="G300" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H300" s="22"/>
-      <c r="I300" s="20">
-        <v>111111</v>
+        <v>490</v>
+      </c>
+      <c r="F300" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="G300" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H300" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="I300" s="20" t="s">
+        <v>493</v>
       </c>
       <c r="J300" s="17" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="K300" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L300" s="23" t="str">
         <f t="shared" si="10"/>
@@ -21139,7 +21137,7 @@
       </c>
       <c r="M300" s="23" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N300" s="24" t="str">
         <f t="shared" si="12"/>
@@ -21160,7 +21158,7 @@
     </row>
     <row r="301" spans="1:26" ht="12.75" customHeight="1">
       <c r="A301" s="17" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B301" s="18" t="s">
         <v>18</v>
@@ -21169,25 +21167,21 @@
         <v>18</v>
       </c>
       <c r="D301" s="18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E301" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="F301" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="G301" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H301" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="I301" s="20" t="s">
         <v>495</v>
       </c>
+      <c r="F301" s="20"/>
+      <c r="G301" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H301" s="22"/>
+      <c r="I301" s="20">
+        <v>57</v>
+      </c>
       <c r="J301" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K301" s="20">
         <v>2</v>
@@ -21228,21 +21222,23 @@
         <v>18</v>
       </c>
       <c r="D302" s="18">
-        <v>2</v>
-      </c>
-      <c r="E302" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E302" s="26" t="s">
         <v>497</v>
       </c>
       <c r="F302" s="20"/>
       <c r="G302" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="H302" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="H302" s="22" t="s">
+        <v>498</v>
+      </c>
       <c r="I302" s="20">
-        <v>57</v>
+        <v>9700</v>
       </c>
       <c r="J302" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K302" s="20">
         <v>2</v>
@@ -21274,7 +21270,7 @@
     </row>
     <row r="303" spans="1:26" ht="12.75" customHeight="1">
       <c r="A303" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B303" s="18" t="s">
         <v>18</v>
@@ -21283,23 +21279,23 @@
         <v>18</v>
       </c>
       <c r="D303" s="18">
-        <v>4</v>
-      </c>
-      <c r="E303" s="26" t="s">
-        <v>499</v>
+        <v>150</v>
+      </c>
+      <c r="E303" s="19" t="s">
+        <v>500</v>
       </c>
       <c r="F303" s="20"/>
       <c r="G303" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H303" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="I303" s="20">
-        <v>9700</v>
+        <v>498</v>
+      </c>
+      <c r="I303" s="20" t="s">
+        <v>501</v>
       </c>
       <c r="J303" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K303" s="20">
         <v>2</v>
@@ -21331,7 +21327,7 @@
     </row>
     <row r="304" spans="1:26" ht="12.75" customHeight="1">
       <c r="A304" s="17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B304" s="18" t="s">
         <v>18</v>
@@ -21340,23 +21336,23 @@
         <v>18</v>
       </c>
       <c r="D304" s="18">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="E304" s="19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F304" s="20"/>
       <c r="G304" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H304" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="I304" s="20" t="s">
-        <v>503</v>
+        <v>498</v>
+      </c>
+      <c r="I304" s="20">
+        <v>2100</v>
       </c>
       <c r="J304" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K304" s="20">
         <v>2</v>
@@ -21397,7 +21393,7 @@
         <v>18</v>
       </c>
       <c r="D305" s="18">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="E305" s="19" t="s">
         <v>505</v>
@@ -21407,13 +21403,13 @@
         <v>25</v>
       </c>
       <c r="H305" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="I305" s="20">
-        <v>2100</v>
+        <v>498</v>
+      </c>
+      <c r="I305" s="20" t="s">
+        <v>506</v>
       </c>
       <c r="J305" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K305" s="20">
         <v>2</v>
@@ -21443,9 +21439,9 @@
       <c r="Y305" s="5"/>
       <c r="Z305" s="5"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75" customHeight="1">
+    <row r="306" spans="1:26" ht="99.75" customHeight="1">
       <c r="A306" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B306" s="18" t="s">
         <v>18</v>
@@ -21454,23 +21450,23 @@
         <v>18</v>
       </c>
       <c r="D306" s="18">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="E306" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F306" s="20"/>
       <c r="G306" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H306" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I306" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J306" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K306" s="20">
         <v>2</v>
@@ -21500,36 +21496,35 @@
       <c r="Y306" s="5"/>
       <c r="Z306" s="5"/>
     </row>
-    <row r="307" spans="1:26" ht="99.75" customHeight="1">
-      <c r="A307" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="B307" s="18" t="s">
+    <row r="307" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A307" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="B307" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C307" s="18" t="s">
+      <c r="C307" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D307" s="18">
-        <v>6</v>
-      </c>
-      <c r="E307" s="19" t="s">
-        <v>510</v>
+      <c r="D307" s="33">
+        <v>65</v>
+      </c>
+      <c r="E307" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="F307" s="20"/>
       <c r="G307" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H307" s="22" t="s">
-        <v>500</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H307" s="22"/>
       <c r="I307" s="20" t="s">
-        <v>511</v>
+        <v>146</v>
       </c>
       <c r="J307" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K307" s="20">
+        <f t="shared" ref="K307:K343" si="13">IF(J307="Public",1,IF(J307="FOUO (CUI)",2,IF(J307="Sensitive (CUI)",3,IF(J307="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="L307" s="23" t="str">
@@ -21559,7 +21554,7 @@
     </row>
     <row r="308" spans="1:26" ht="12.75" customHeight="1">
       <c r="A308" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B308" s="33" t="s">
         <v>18</v>
@@ -21568,7 +21563,7 @@
         <v>18</v>
       </c>
       <c r="D308" s="33">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E308" s="26" t="s">
         <v>24</v>
@@ -21579,13 +21574,13 @@
       </c>
       <c r="H308" s="22"/>
       <c r="I308" s="20" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="J308" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K308" s="20">
-        <f t="shared" ref="K308:K344" si="13">IF(J308="Public",1,IF(J308="FOUO (CUI)",2,IF(J308="Sensitive (CUI)",3,IF(J308="System-Only",4))))</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="L308" s="23" t="str">
@@ -21615,7 +21610,7 @@
     </row>
     <row r="309" spans="1:26" ht="12.75" customHeight="1">
       <c r="A309" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B309" s="33" t="s">
         <v>18</v>
@@ -21624,7 +21619,7 @@
         <v>18</v>
       </c>
       <c r="D309" s="33">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E309" s="26" t="s">
         <v>24</v>
@@ -21635,10 +21630,10 @@
       </c>
       <c r="H309" s="22"/>
       <c r="I309" s="20" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="J309" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K309" s="20">
         <f t="shared" si="13"/>
@@ -21671,7 +21666,7 @@
     </row>
     <row r="310" spans="1:26" ht="12.75" customHeight="1">
       <c r="A310" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B310" s="33" t="s">
         <v>18</v>
@@ -21680,7 +21675,7 @@
         <v>18</v>
       </c>
       <c r="D310" s="33">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E310" s="26" t="s">
         <v>24</v>
@@ -21691,10 +21686,10 @@
       </c>
       <c r="H310" s="22"/>
       <c r="I310" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J310" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K310" s="20">
         <f t="shared" si="13"/>
@@ -21727,7 +21722,7 @@
     </row>
     <row r="311" spans="1:26" ht="12.75" customHeight="1">
       <c r="A311" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B311" s="33" t="s">
         <v>18</v>
@@ -21736,7 +21731,7 @@
         <v>18</v>
       </c>
       <c r="D311" s="33">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E311" s="26" t="s">
         <v>24</v>
@@ -21747,10 +21742,10 @@
       </c>
       <c r="H311" s="22"/>
       <c r="I311" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J311" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K311" s="20">
         <f t="shared" si="13"/>
@@ -21783,7 +21778,7 @@
     </row>
     <row r="312" spans="1:26" ht="12.75" customHeight="1">
       <c r="A312" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B312" s="33" t="s">
         <v>18</v>
@@ -21803,10 +21798,10 @@
       </c>
       <c r="H312" s="22"/>
       <c r="I312" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J312" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K312" s="20">
         <f t="shared" si="13"/>
@@ -21839,7 +21834,7 @@
     </row>
     <row r="313" spans="1:26" ht="12.75" customHeight="1">
       <c r="A313" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B313" s="33" t="s">
         <v>18</v>
@@ -21848,7 +21843,7 @@
         <v>18</v>
       </c>
       <c r="D313" s="33">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="E313" s="26" t="s">
         <v>24</v>
@@ -21859,10 +21854,10 @@
       </c>
       <c r="H313" s="22"/>
       <c r="I313" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J313" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K313" s="20">
         <f t="shared" si="13"/>
@@ -21895,7 +21890,7 @@
     </row>
     <row r="314" spans="1:26" ht="12.75" customHeight="1">
       <c r="A314" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B314" s="33" t="s">
         <v>18</v>
@@ -21904,7 +21899,7 @@
         <v>18</v>
       </c>
       <c r="D314" s="33">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E314" s="26" t="s">
         <v>24</v>
@@ -21913,12 +21908,14 @@
       <c r="G314" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H314" s="22"/>
+      <c r="H314" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="I314" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J314" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K314" s="20">
         <f t="shared" si="13"/>
@@ -21951,32 +21948,30 @@
     </row>
     <row r="315" spans="1:26" ht="12.75" customHeight="1">
       <c r="A315" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B315" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C315" s="33" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D315" s="33">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E315" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F315" s="20"/>
-      <c r="G315" s="21" t="s">
+      <c r="F315" s="31"/>
+      <c r="G315" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H315" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="H315" s="22"/>
       <c r="I315" s="20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J315" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K315" s="20">
         <f t="shared" si="13"/>
@@ -22009,30 +22004,30 @@
     </row>
     <row r="316" spans="1:26" ht="12.75" customHeight="1">
       <c r="A316" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B316" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C316" s="33" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D316" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E316" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F316" s="31"/>
-      <c r="G316" s="22" t="s">
+      <c r="F316" s="20"/>
+      <c r="G316" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H316" s="22"/>
       <c r="I316" s="20" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="J316" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K316" s="20">
         <f t="shared" si="13"/>
@@ -22065,7 +22060,7 @@
     </row>
     <row r="317" spans="1:26" ht="12.75" customHeight="1">
       <c r="A317" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B317" s="33" t="s">
         <v>18</v>
@@ -22074,7 +22069,7 @@
         <v>18</v>
       </c>
       <c r="D317" s="33">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E317" s="26" t="s">
         <v>24</v>
@@ -22083,12 +22078,14 @@
       <c r="G317" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H317" s="22"/>
+      <c r="H317" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="I317" s="20" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="J317" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K317" s="20">
         <f t="shared" si="13"/>
@@ -22121,16 +22118,16 @@
     </row>
     <row r="318" spans="1:26" ht="12.75" customHeight="1">
       <c r="A318" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B318" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C318" s="33" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D318" s="33">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E318" s="26" t="s">
         <v>24</v>
@@ -22140,13 +22137,13 @@
         <v>31</v>
       </c>
       <c r="H318" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J318" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K318" s="20">
         <f t="shared" si="13"/>
@@ -22179,16 +22176,16 @@
     </row>
     <row r="319" spans="1:26" ht="12.75" customHeight="1">
       <c r="A319" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B319" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C319" s="33" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D319" s="33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E319" s="26" t="s">
         <v>24</v>
@@ -22197,14 +22194,12 @@
       <c r="G319" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H319" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="H319" s="22"/>
       <c r="I319" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J319" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K319" s="20">
         <f t="shared" si="13"/>
@@ -22237,7 +22232,7 @@
     </row>
     <row r="320" spans="1:26" ht="12.75" customHeight="1">
       <c r="A320" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B320" s="33" t="s">
         <v>18</v>
@@ -22246,7 +22241,7 @@
         <v>18</v>
       </c>
       <c r="D320" s="33">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E320" s="26" t="s">
         <v>24</v>
@@ -22255,12 +22250,14 @@
       <c r="G320" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H320" s="22"/>
+      <c r="H320" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="I320" s="20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J320" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K320" s="20">
         <f t="shared" si="13"/>
@@ -22293,7 +22290,7 @@
     </row>
     <row r="321" spans="1:26" ht="12.75" customHeight="1">
       <c r="A321" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B321" s="33" t="s">
         <v>18</v>
@@ -22311,14 +22308,12 @@
       <c r="G321" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H321" s="22" t="s">
-        <v>170</v>
-      </c>
+      <c r="H321" s="22"/>
       <c r="I321" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J321" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K321" s="20">
         <f t="shared" si="13"/>
@@ -22351,7 +22346,7 @@
     </row>
     <row r="322" spans="1:26" ht="12.75" customHeight="1">
       <c r="A322" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B322" s="33" t="s">
         <v>18</v>
@@ -22360,7 +22355,7 @@
         <v>18</v>
       </c>
       <c r="D322" s="33">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E322" s="26" t="s">
         <v>24</v>
@@ -22371,10 +22366,10 @@
       </c>
       <c r="H322" s="22"/>
       <c r="I322" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J322" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K322" s="20">
         <f t="shared" si="13"/>
@@ -22407,7 +22402,7 @@
     </row>
     <row r="323" spans="1:26" ht="12.75" customHeight="1">
       <c r="A323" s="28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B323" s="33" t="s">
         <v>18</v>
@@ -22416,7 +22411,7 @@
         <v>18</v>
       </c>
       <c r="D323" s="33">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E323" s="26" t="s">
         <v>24</v>
@@ -22427,10 +22422,10 @@
       </c>
       <c r="H323" s="22"/>
       <c r="I323" s="20" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="J323" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K323" s="20">
         <f t="shared" si="13"/>
@@ -22463,7 +22458,7 @@
     </row>
     <row r="324" spans="1:26" ht="12.75" customHeight="1">
       <c r="A324" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B324" s="33" t="s">
         <v>18</v>
@@ -22472,7 +22467,7 @@
         <v>18</v>
       </c>
       <c r="D324" s="33">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E324" s="26" t="s">
         <v>24</v>
@@ -22483,10 +22478,10 @@
       </c>
       <c r="H324" s="22"/>
       <c r="I324" s="20" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="J324" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K324" s="20">
         <f t="shared" si="13"/>
@@ -22519,7 +22514,7 @@
     </row>
     <row r="325" spans="1:26" ht="12.75" customHeight="1">
       <c r="A325" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B325" s="33" t="s">
         <v>18</v>
@@ -22528,7 +22523,7 @@
         <v>18</v>
       </c>
       <c r="D325" s="33">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E325" s="26" t="s">
         <v>24</v>
@@ -22539,10 +22534,10 @@
       </c>
       <c r="H325" s="22"/>
       <c r="I325" s="20" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="J325" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K325" s="20">
         <f t="shared" si="13"/>
@@ -22575,7 +22570,7 @@
     </row>
     <row r="326" spans="1:26" ht="12.75" customHeight="1">
       <c r="A326" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B326" s="33" t="s">
         <v>18</v>
@@ -22584,7 +22579,7 @@
         <v>18</v>
       </c>
       <c r="D326" s="33">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E326" s="26" t="s">
         <v>24</v>
@@ -22595,10 +22590,10 @@
       </c>
       <c r="H326" s="22"/>
       <c r="I326" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J326" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K326" s="20">
         <f t="shared" si="13"/>
@@ -22631,7 +22626,7 @@
     </row>
     <row r="327" spans="1:26" ht="12.75" customHeight="1">
       <c r="A327" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B327" s="33" t="s">
         <v>18</v>
@@ -22640,7 +22635,7 @@
         <v>18</v>
       </c>
       <c r="D327" s="33">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E327" s="26" t="s">
         <v>24</v>
@@ -22651,10 +22646,10 @@
       </c>
       <c r="H327" s="22"/>
       <c r="I327" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J327" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K327" s="20">
         <f t="shared" si="13"/>
@@ -22687,7 +22682,7 @@
     </row>
     <row r="328" spans="1:26" ht="12.75" customHeight="1">
       <c r="A328" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B328" s="33" t="s">
         <v>18</v>
@@ -22707,10 +22702,10 @@
       </c>
       <c r="H328" s="22"/>
       <c r="I328" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J328" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K328" s="20">
         <f t="shared" si="13"/>
@@ -22743,7 +22738,7 @@
     </row>
     <row r="329" spans="1:26" ht="12.75" customHeight="1">
       <c r="A329" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B329" s="33" t="s">
         <v>18</v>
@@ -22752,7 +22747,7 @@
         <v>18</v>
       </c>
       <c r="D329" s="33">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="E329" s="26" t="s">
         <v>24</v>
@@ -22763,10 +22758,10 @@
       </c>
       <c r="H329" s="22"/>
       <c r="I329" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J329" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K329" s="20">
         <f t="shared" si="13"/>
@@ -22799,7 +22794,7 @@
     </row>
     <row r="330" spans="1:26" ht="12.75" customHeight="1">
       <c r="A330" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B330" s="33" t="s">
         <v>18</v>
@@ -22808,7 +22803,7 @@
         <v>18</v>
       </c>
       <c r="D330" s="33">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E330" s="26" t="s">
         <v>24</v>
@@ -22817,12 +22812,14 @@
       <c r="G330" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H330" s="22"/>
+      <c r="H330" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="I330" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J330" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K330" s="20">
         <f t="shared" si="13"/>
@@ -22855,121 +22852,119 @@
     </row>
     <row r="331" spans="1:26" ht="12.75" customHeight="1">
       <c r="A331" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B331" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C331" s="33" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D331" s="33">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E331" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F331" s="20"/>
-      <c r="G331" s="21" t="s">
+      <c r="F331" s="31"/>
+      <c r="G331" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H331" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I331" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="J331" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="K331" s="20">
+      <c r="H331" s="22"/>
+      <c r="I331" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J331" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="K331" s="31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="L331" s="23" t="str">
+      <c r="L331" s="34" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M331" s="23" t="str">
+      <c r="M331" s="34" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N331" s="24" t="str">
+      <c r="N331" s="35" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
-      <c r="O331" s="5"/>
-      <c r="P331" s="5"/>
-      <c r="Q331" s="5"/>
-      <c r="R331" s="5"/>
-      <c r="S331" s="5"/>
-      <c r="T331" s="5"/>
-      <c r="U331" s="5"/>
-      <c r="V331" s="5"/>
-      <c r="W331" s="5"/>
-      <c r="X331" s="5"/>
-      <c r="Y331" s="5"/>
-      <c r="Z331" s="5"/>
+      <c r="O331" s="36"/>
+      <c r="P331" s="36"/>
+      <c r="Q331" s="36"/>
+      <c r="R331" s="36"/>
+      <c r="S331" s="36"/>
+      <c r="T331" s="36"/>
+      <c r="U331" s="36"/>
+      <c r="V331" s="36"/>
+      <c r="W331" s="36"/>
+      <c r="X331" s="36"/>
+      <c r="Y331" s="36"/>
+      <c r="Z331" s="36"/>
     </row>
     <row r="332" spans="1:26" ht="12.75" customHeight="1">
       <c r="A332" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B332" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C332" s="33" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D332" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E332" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F332" s="31"/>
-      <c r="G332" s="22" t="s">
+      <c r="F332" s="20"/>
+      <c r="G332" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H332" s="22"/>
-      <c r="I332" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="J332" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="K332" s="31">
+      <c r="I332" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J332" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="K332" s="20">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="L332" s="34" t="str">
+      <c r="L332" s="23" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M332" s="34" t="str">
+      <c r="M332" s="23" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N332" s="35" t="str">
+      <c r="N332" s="24" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
-      <c r="O332" s="36"/>
-      <c r="P332" s="36"/>
-      <c r="Q332" s="36"/>
-      <c r="R332" s="36"/>
-      <c r="S332" s="36"/>
-      <c r="T332" s="36"/>
-      <c r="U332" s="36"/>
-      <c r="V332" s="36"/>
-      <c r="W332" s="36"/>
-      <c r="X332" s="36"/>
-      <c r="Y332" s="36"/>
-      <c r="Z332" s="36"/>
+      <c r="O332" s="5"/>
+      <c r="P332" s="5"/>
+      <c r="Q332" s="5"/>
+      <c r="R332" s="5"/>
+      <c r="S332" s="5"/>
+      <c r="T332" s="5"/>
+      <c r="U332" s="5"/>
+      <c r="V332" s="5"/>
+      <c r="W332" s="5"/>
+      <c r="X332" s="5"/>
+      <c r="Y332" s="5"/>
+      <c r="Z332" s="5"/>
     </row>
     <row r="333" spans="1:26" ht="12.75" customHeight="1">
       <c r="A333" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B333" s="33" t="s">
         <v>18</v>
@@ -22978,7 +22973,7 @@
         <v>18</v>
       </c>
       <c r="D333" s="33">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E333" s="26" t="s">
         <v>24</v>
@@ -22987,12 +22982,14 @@
       <c r="G333" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H333" s="22"/>
+      <c r="H333" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="I333" s="20" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="J333" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K333" s="20">
         <f t="shared" si="13"/>
@@ -23025,16 +23022,16 @@
     </row>
     <row r="334" spans="1:26" ht="12.75" customHeight="1">
       <c r="A334" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B334" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C334" s="33" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D334" s="33">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E334" s="26" t="s">
         <v>24</v>
@@ -23044,13 +23041,13 @@
         <v>31</v>
       </c>
       <c r="H334" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I334" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J334" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K334" s="20">
         <f t="shared" si="13"/>
@@ -23083,16 +23080,16 @@
     </row>
     <row r="335" spans="1:26" ht="12.75" customHeight="1">
       <c r="A335" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B335" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C335" s="33" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D335" s="33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E335" s="26" t="s">
         <v>24</v>
@@ -23101,14 +23098,12 @@
       <c r="G335" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H335" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="H335" s="22"/>
       <c r="I335" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J335" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K335" s="20">
         <f t="shared" si="13"/>
@@ -23141,7 +23136,7 @@
     </row>
     <row r="336" spans="1:26" ht="12.75" customHeight="1">
       <c r="A336" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B336" s="33" t="s">
         <v>18</v>
@@ -23150,7 +23145,7 @@
         <v>18</v>
       </c>
       <c r="D336" s="33">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E336" s="26" t="s">
         <v>24</v>
@@ -23159,12 +23154,14 @@
       <c r="G336" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H336" s="22"/>
+      <c r="H336" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="I336" s="20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J336" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K336" s="20">
         <f t="shared" si="13"/>
@@ -23197,7 +23194,7 @@
     </row>
     <row r="337" spans="1:26" ht="12.75" customHeight="1">
       <c r="A337" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B337" s="33" t="s">
         <v>18</v>
@@ -23215,14 +23212,12 @@
       <c r="G337" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H337" s="22" t="s">
-        <v>170</v>
-      </c>
+      <c r="H337" s="22"/>
       <c r="I337" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J337" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K337" s="20">
         <f t="shared" si="13"/>
@@ -23255,7 +23250,7 @@
     </row>
     <row r="338" spans="1:26" ht="12.75" customHeight="1">
       <c r="A338" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B338" s="33" t="s">
         <v>18</v>
@@ -23264,7 +23259,7 @@
         <v>18</v>
       </c>
       <c r="D338" s="33">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E338" s="26" t="s">
         <v>24</v>
@@ -23275,10 +23270,10 @@
       </c>
       <c r="H338" s="22"/>
       <c r="I338" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J338" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K338" s="20">
         <f t="shared" si="13"/>
@@ -23310,39 +23305,39 @@
       <c r="Z338" s="5"/>
     </row>
     <row r="339" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A339" s="28" t="s">
+      <c r="A339" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="B339" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C339" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D339" s="46">
+        <v>10</v>
+      </c>
+      <c r="E339" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="B339" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C339" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D339" s="33">
-        <v>80</v>
-      </c>
-      <c r="E339" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F339" s="20"/>
-      <c r="G339" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H339" s="22"/>
-      <c r="I339" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="J339" s="17" t="s">
-        <v>900</v>
+      <c r="F339" s="38"/>
+      <c r="G339" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H339" s="48"/>
+      <c r="I339" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="J339" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="K339" s="20">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L339" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M339" s="23" t="str">
         <f t="shared" si="11"/>
@@ -23367,7 +23362,7 @@
     </row>
     <row r="340" spans="1:26" ht="12.75" customHeight="1">
       <c r="A340" s="45" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B340" s="46" t="s">
         <v>18</v>
@@ -23379,26 +23374,28 @@
         <v>10</v>
       </c>
       <c r="E340" s="47" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F340" s="38"/>
       <c r="G340" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H340" s="48"/>
+        <v>57</v>
+      </c>
+      <c r="H340" s="48" t="s">
+        <v>547</v>
+      </c>
       <c r="I340" s="38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J340" s="40" t="s">
-        <v>16</v>
+        <v>898</v>
       </c>
       <c r="K340" s="20">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L340" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M340" s="23" t="str">
         <f t="shared" si="11"/>
@@ -23423,7 +23420,7 @@
     </row>
     <row r="341" spans="1:26" ht="12.75" customHeight="1">
       <c r="A341" s="45" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B341" s="46" t="s">
         <v>18</v>
@@ -23435,7 +23432,7 @@
         <v>10</v>
       </c>
       <c r="E341" s="47" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F341" s="38"/>
       <c r="G341" s="39" t="s">
@@ -23445,10 +23442,10 @@
         <v>549</v>
       </c>
       <c r="I341" s="38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J341" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K341" s="20">
         <f t="shared" si="13"/>
@@ -23493,7 +23490,7 @@
         <v>10</v>
       </c>
       <c r="E342" s="47" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F342" s="38"/>
       <c r="G342" s="39" t="s">
@@ -23503,10 +23500,10 @@
         <v>551</v>
       </c>
       <c r="I342" s="38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J342" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K342" s="20">
         <f t="shared" si="13"/>
@@ -23551,20 +23548,18 @@
         <v>10</v>
       </c>
       <c r="E343" s="47" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F343" s="38"/>
       <c r="G343" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H343" s="48" t="s">
-        <v>553</v>
-      </c>
+      <c r="H343" s="48"/>
       <c r="I343" s="38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J343" s="40" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K343" s="20">
         <f t="shared" si="13"/>
@@ -23596,45 +23591,44 @@
       <c r="Z343" s="5"/>
     </row>
     <row r="344" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A344" s="45" t="s">
+      <c r="A344" s="49" t="s">
+        <v>553</v>
+      </c>
+      <c r="B344" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C344" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D344" s="50">
+        <v>4</v>
+      </c>
+      <c r="E344" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="B344" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C344" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D344" s="46">
-        <v>10</v>
-      </c>
-      <c r="E344" s="47" t="s">
-        <v>548</v>
-      </c>
-      <c r="F344" s="38"/>
-      <c r="G344" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H344" s="48"/>
-      <c r="I344" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="J344" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="K344" s="20">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="L344" s="23" t="str">
+      <c r="F344" s="52"/>
+      <c r="G344" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H344" s="54"/>
+      <c r="I344" s="55" t="s">
+        <v>555</v>
+      </c>
+      <c r="J344" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K344" s="52">
+        <v>1</v>
+      </c>
+      <c r="L344" s="57" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M344" s="23" t="str">
+        <v>X</v>
+      </c>
+      <c r="M344" s="57" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N344" s="24" t="str">
+      <c r="N344" s="58" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
@@ -23652,47 +23646,20 @@
       <c r="Z344" s="5"/>
     </row>
     <row r="345" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A345" s="49" t="s">
-        <v>555</v>
-      </c>
-      <c r="B345" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C345" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D345" s="50">
-        <v>4</v>
-      </c>
-      <c r="E345" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="F345" s="52"/>
-      <c r="G345" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H345" s="54"/>
-      <c r="I345" s="55" t="s">
-        <v>557</v>
-      </c>
-      <c r="J345" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="K345" s="52">
-        <v>1</v>
-      </c>
-      <c r="L345" s="57" t="str">
-        <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="M345" s="57" t="str">
-        <f t="shared" si="11"/>
-        <v>X</v>
-      </c>
-      <c r="N345" s="58" t="str">
-        <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
+      <c r="A345" s="59"/>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="5"/>
+      <c r="K345" s="5"/>
+      <c r="L345" s="5"/>
+      <c r="M345" s="5"/>
+      <c r="N345" s="5"/>
       <c r="O345" s="5"/>
       <c r="P345" s="5"/>
       <c r="Q345" s="5"/>
@@ -23707,7 +23674,9 @@
       <c r="Z345" s="5"/>
     </row>
     <row r="346" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A346" s="59"/>
+      <c r="A346" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="3"/>
@@ -23735,9 +23704,7 @@
       <c r="Z346" s="5"/>
     </row>
     <row r="347" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A347" s="1" t="s">
-        <v>558</v>
-      </c>
+      <c r="A347" s="59"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="3"/>
@@ -42020,36 +41987,8 @@
       <c r="Y999" s="5"/>
       <c r="Z999" s="5"/>
     </row>
-    <row r="1000" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1000" s="59"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="5"/>
-      <c r="K1000" s="5"/>
-      <c r="L1000" s="5"/>
-      <c r="M1000" s="5"/>
-      <c r="N1000" s="5"/>
-      <c r="O1000" s="5"/>
-      <c r="P1000" s="5"/>
-      <c r="Q1000" s="5"/>
-      <c r="R1000" s="5"/>
-      <c r="S1000" s="5"/>
-      <c r="T1000" s="5"/>
-      <c r="U1000" s="5"/>
-      <c r="V1000" s="5"/>
-      <c r="W1000" s="5"/>
-      <c r="X1000" s="5"/>
-      <c r="Y1000" s="5"/>
-      <c r="Z1000" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:N345" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:N344" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="J2:N2"/>
@@ -42057,12 +41996,12 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6:N25 L27:N172 L182:N234 L236:N345">
+  <conditionalFormatting sqref="L6:N25 L27:N172 L182:N234 L236:N344">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>(L6="X")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:N25 L27:N172 L182:N234 L236:N345">
+  <conditionalFormatting sqref="L6:N25 L27:N172 L182:N234 L236:N344">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
@@ -42108,7 +42047,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G172 G182:G345" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G172 G182:G344" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>MandatoryOptional</formula1>
     </dataValidation>
   </dataValidations>
@@ -42126,17 +42065,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="82.5703125" customWidth="1"/>
-    <col min="9" max="26" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.26171875" customWidth="1"/>
+    <col min="2" max="2" width="11.68359375" customWidth="1"/>
+    <col min="3" max="3" width="19.68359375" customWidth="1"/>
+    <col min="4" max="4" width="46.26171875" customWidth="1"/>
+    <col min="5" max="5" width="18.578125" customWidth="1"/>
+    <col min="6" max="6" width="17.578125" customWidth="1"/>
+    <col min="7" max="7" width="9.26171875" customWidth="1"/>
+    <col min="8" max="8" width="82.578125" customWidth="1"/>
+    <col min="9" max="26" width="9.26171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1">
@@ -42170,7 +42109,7 @@
     <row r="2" spans="1:26" ht="12" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="60" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -42228,17 +42167,17 @@
     <row r="4" spans="1:26" ht="12" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="61" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" s="63" t="s">
         <v>560</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>561</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>562</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -42264,15 +42203,15 @@
     <row r="5" spans="1:26" ht="12" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="64" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D5" s="135"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -42298,13 +42237,13 @@
     <row r="6" spans="1:26" ht="12" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="65" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C6" s="66">
         <v>1</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -42332,13 +42271,13 @@
     <row r="7" spans="1:26" ht="12" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="65" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C7" s="66">
         <v>2</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -42366,17 +42305,17 @@
     <row r="8" spans="1:26" ht="12" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="65" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C8" s="66">
         <v>3</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -42402,13 +42341,13 @@
     <row r="9" spans="1:26" ht="12" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="65" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C9" s="66">
         <v>4</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -42436,15 +42375,15 @@
     <row r="10" spans="1:26" ht="12" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="65" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C10" s="136" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D10" s="137"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -42470,13 +42409,13 @@
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="65" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C11" s="66">
         <v>1</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -42504,17 +42443,17 @@
     <row r="12" spans="1:26" ht="12" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="65" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C12" s="66">
         <v>2</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -42540,13 +42479,13 @@
     <row r="13" spans="1:26" ht="12" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="65" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C13" s="66">
         <v>3</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -42574,17 +42513,17 @@
     <row r="14" spans="1:26" ht="12" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="65" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C14" s="66">
         <v>4</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -42610,10 +42549,10 @@
     <row r="15" spans="1:26" ht="12" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="65" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C15" s="136" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D15" s="137"/>
       <c r="E15" s="5"/>
@@ -42642,17 +42581,17 @@
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="65" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C16" s="66">
         <v>1</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -42678,17 +42617,17 @@
     <row r="17" spans="1:26" ht="12" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="65" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C17" s="66">
         <v>2</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -42714,17 +42653,17 @@
     <row r="18" spans="1:26" ht="12" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="65" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C18" s="66">
         <v>3</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -42750,17 +42689,17 @@
     <row r="19" spans="1:26" ht="12" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="65" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C19" s="66">
         <v>4</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -42786,15 +42725,15 @@
     <row r="20" spans="1:26" ht="12" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C20" s="136" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D20" s="137"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -42820,13 +42759,13 @@
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C21" s="66">
         <v>1</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -42854,13 +42793,13 @@
     <row r="22" spans="1:26" ht="12" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C22" s="66">
         <v>2</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -42888,17 +42827,17 @@
     <row r="23" spans="1:26" ht="12" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C23" s="66">
         <v>3</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -42924,17 +42863,17 @@
     <row r="24" spans="1:26" ht="12" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C24" s="66">
         <v>4</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -42960,15 +42899,15 @@
     <row r="25" spans="1:26" ht="12" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="65" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C25" s="136" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D25" s="137"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -42994,17 +42933,17 @@
     <row r="26" spans="1:26" ht="15" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="65" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C26" s="66">
         <v>1</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -43030,13 +42969,13 @@
     <row r="27" spans="1:26" ht="12" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="65" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C27" s="66">
         <v>2</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -43064,13 +43003,13 @@
     <row r="28" spans="1:26" ht="12" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="65" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C28" s="66">
         <v>3</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -43098,13 +43037,13 @@
     <row r="29" spans="1:26" ht="12" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="68" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C29" s="69">
         <v>4</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -43216,7 +43155,7 @@
     <row r="33" spans="1:26" ht="12" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="60" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -43274,14 +43213,14 @@
     <row r="35" spans="1:26" ht="12" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="71" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -43308,14 +43247,14 @@
     <row r="36" spans="1:26" ht="12" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="73" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -43342,10 +43281,10 @@
     <row r="37" spans="1:26" ht="12" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="75" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C37" s="76" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -43374,10 +43313,10 @@
     <row r="38" spans="1:26" ht="12" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="75" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -43406,14 +43345,14 @@
     <row r="39" spans="1:26" ht="12" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="77" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -43443,7 +43382,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -43473,7 +43412,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -43503,7 +43442,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -43617,7 +43556,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -43675,7 +43614,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -43733,7 +43672,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -43763,7 +43702,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -43821,7 +43760,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -43851,7 +43790,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -43881,7 +43820,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -43911,7 +43850,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -43941,7 +43880,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -43971,7 +43910,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -44001,7 +43940,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -44031,7 +43970,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -44061,7 +44000,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -44091,7 +44030,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -44118,7 +44057,7 @@
     <row r="63" spans="1:26" ht="12" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="60" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -44176,10 +44115,10 @@
     <row r="65" spans="1:26" ht="12" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="79" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -44208,10 +44147,10 @@
     <row r="66" spans="1:26" ht="12" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="64" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C66" s="81" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -44240,14 +44179,14 @@
     <row r="67" spans="1:26" ht="12" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="65" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -44274,10 +44213,10 @@
     <row r="68" spans="1:26" ht="12" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="65" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C68" s="67" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -44306,14 +44245,14 @@
     <row r="69" spans="1:26" ht="12" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="65" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C69" s="67" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -44340,10 +44279,10 @@
     <row r="70" spans="1:26" ht="12" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="65" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C70" s="67" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -44372,14 +44311,14 @@
     <row r="71" spans="1:26" ht="12" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="65" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C71" s="67" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -44406,10 +44345,10 @@
     <row r="72" spans="1:26" ht="12" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="65" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C72" s="67" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -44438,10 +44377,10 @@
     <row r="73" spans="1:26" ht="12" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="65" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C73" s="67" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -44470,10 +44409,10 @@
     <row r="74" spans="1:26" ht="12" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="65" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C74" s="67" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -44502,10 +44441,10 @@
     <row r="75" spans="1:26" ht="12" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="65" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -44534,10 +44473,10 @@
     <row r="76" spans="1:26" ht="12" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="65" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C76" s="67" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -44566,10 +44505,10 @@
     <row r="77" spans="1:26" ht="12" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="65" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C77" s="67" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -44598,10 +44537,10 @@
     <row r="78" spans="1:26" ht="12" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="65" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C78" s="67" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -44630,10 +44569,10 @@
     <row r="79" spans="1:26" ht="12" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="65" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C79" s="67" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -44662,10 +44601,10 @@
     <row r="80" spans="1:26" ht="12" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="65" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C80" s="67" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -44694,10 +44633,10 @@
     <row r="81" spans="1:26" ht="12" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="65" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C81" s="67" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -44726,10 +44665,10 @@
     <row r="82" spans="1:26" ht="12" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="65" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -44758,10 +44697,10 @@
     <row r="83" spans="1:26" ht="12" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="65" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C83" s="67" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -44790,10 +44729,10 @@
     <row r="84" spans="1:26" ht="12" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="65" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C84" s="67" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -44822,10 +44761,10 @@
     <row r="85" spans="1:26" ht="12" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="65" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C85" s="67" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -44854,10 +44793,10 @@
     <row r="86" spans="1:26" ht="12" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="65" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C86" s="67" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -44886,10 +44825,10 @@
     <row r="87" spans="1:26" ht="12" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="65" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C87" s="67" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -44918,10 +44857,10 @@
     <row r="88" spans="1:26" ht="12" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="65" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C88" s="67" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -44950,10 +44889,10 @@
     <row r="89" spans="1:26" ht="12" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="65" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C89" s="67" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -44982,10 +44921,10 @@
     <row r="90" spans="1:26" ht="12" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="65" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C90" s="67" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -45014,10 +44953,10 @@
     <row r="91" spans="1:26" ht="12" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="65" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C91" s="67" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -45046,10 +44985,10 @@
     <row r="92" spans="1:26" ht="12" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="65" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C92" s="67" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -45078,10 +45017,10 @@
     <row r="93" spans="1:26" ht="12" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="65" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C93" s="67" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -45110,10 +45049,10 @@
     <row r="94" spans="1:26" ht="12" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="65" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C94" s="67" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -45142,10 +45081,10 @@
     <row r="95" spans="1:26" ht="12" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="65" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C95" s="67" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -45174,10 +45113,10 @@
     <row r="96" spans="1:26" ht="12" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="65" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C96" s="67" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -45206,10 +45145,10 @@
     <row r="97" spans="1:26" ht="12" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="65" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C97" s="67" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -45238,10 +45177,10 @@
     <row r="98" spans="1:26" ht="12" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="65" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C98" s="67" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -45270,10 +45209,10 @@
     <row r="99" spans="1:26" ht="12" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="65" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -45302,10 +45241,10 @@
     <row r="100" spans="1:26" ht="12" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="65" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C100" s="67" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -45334,10 +45273,10 @@
     <row r="101" spans="1:26" ht="12" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="65" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C101" s="67" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -45366,10 +45305,10 @@
     <row r="102" spans="1:26" ht="12" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="65" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C102" s="67" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -45398,10 +45337,10 @@
     <row r="103" spans="1:26" ht="12" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="65" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C103" s="67" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -45430,10 +45369,10 @@
     <row r="104" spans="1:26" ht="12" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="65" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C104" s="67" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -45462,10 +45401,10 @@
     <row r="105" spans="1:26" ht="12" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="65" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C105" s="67" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -45494,10 +45433,10 @@
     <row r="106" spans="1:26" ht="12" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="65" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C106" s="67" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -45526,10 +45465,10 @@
     <row r="107" spans="1:26" ht="12" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="65" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C107" s="67" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -45558,10 +45497,10 @@
     <row r="108" spans="1:26" ht="12" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="65" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C108" s="67" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -45590,10 +45529,10 @@
     <row r="109" spans="1:26" ht="12" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="65" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C109" s="67" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -45622,10 +45561,10 @@
     <row r="110" spans="1:26" ht="12" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="65" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C110" s="67" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -45654,10 +45593,10 @@
     <row r="111" spans="1:26" ht="12" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="65" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C111" s="67" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -45686,10 +45625,10 @@
     <row r="112" spans="1:26" ht="12" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="65" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C112" s="67" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -45718,10 +45657,10 @@
     <row r="113" spans="1:26" ht="12" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="65" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C113" s="67" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -45750,10 +45689,10 @@
     <row r="114" spans="1:26" ht="12" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="65" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C114" s="67" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -45782,10 +45721,10 @@
     <row r="115" spans="1:26" ht="12" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C115" s="67" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -45814,10 +45753,10 @@
     <row r="116" spans="1:26" ht="12" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="65" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C116" s="67" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -45846,10 +45785,10 @@
     <row r="117" spans="1:26" ht="12" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="65" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C117" s="67" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -45878,10 +45817,10 @@
     <row r="118" spans="1:26" ht="12" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="65" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C118" s="67" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -45910,10 +45849,10 @@
     <row r="119" spans="1:26" ht="12" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="65" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C119" s="67" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -45942,10 +45881,10 @@
     <row r="120" spans="1:26" ht="12" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="65" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C120" s="67" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -45974,10 +45913,10 @@
     <row r="121" spans="1:26" ht="12" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="65" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C121" s="67" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -46006,10 +45945,10 @@
     <row r="122" spans="1:26" ht="12" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="65" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C122" s="67" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -46038,10 +45977,10 @@
     <row r="123" spans="1:26" ht="12" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="65" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C123" s="67" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -46070,10 +46009,10 @@
     <row r="124" spans="1:26" ht="12" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="65" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C124" s="67" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -46102,10 +46041,10 @@
     <row r="125" spans="1:26" ht="12" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="65" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C125" s="67" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -46134,10 +46073,10 @@
     <row r="126" spans="1:26" ht="12" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="65" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C126" s="67" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -46166,10 +46105,10 @@
     <row r="127" spans="1:26" ht="12" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="65" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C127" s="67" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -46198,10 +46137,10 @@
     <row r="128" spans="1:26" ht="12" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="65" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C128" s="67" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -46230,10 +46169,10 @@
     <row r="129" spans="1:26" ht="12" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="65" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C129" s="67" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -46262,10 +46201,10 @@
     <row r="130" spans="1:26" ht="12" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="65" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C130" s="67" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -46294,10 +46233,10 @@
     <row r="131" spans="1:26" ht="12" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="65" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C131" s="67" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -46326,10 +46265,10 @@
     <row r="132" spans="1:26" ht="12" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="65" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C132" s="67" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -46358,10 +46297,10 @@
     <row r="133" spans="1:26" ht="12" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="65" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C133" s="67" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -46390,10 +46329,10 @@
     <row r="134" spans="1:26" ht="12" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="65" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C134" s="67" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -46422,10 +46361,10 @@
     <row r="135" spans="1:26" ht="12" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="65" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C135" s="67" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -46454,10 +46393,10 @@
     <row r="136" spans="1:26" ht="12" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="65" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C136" s="67" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -46486,10 +46425,10 @@
     <row r="137" spans="1:26" ht="12" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="82" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C137" s="83" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -46518,10 +46457,10 @@
     <row r="138" spans="1:26" ht="12" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="84" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C138" s="83" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -46550,10 +46489,10 @@
     <row r="139" spans="1:26" ht="12" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="84" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C139" s="83" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -46582,10 +46521,10 @@
     <row r="140" spans="1:26" ht="12" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="84" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C140" s="83" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -46614,13 +46553,13 @@
     <row r="141" spans="1:26" ht="12" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="85" t="s">
+        <v>780</v>
+      </c>
+      <c r="C141" s="86" t="s">
+        <v>781</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="C141" s="86" t="s">
-        <v>783</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>784</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -46648,13 +46587,13 @@
     <row r="142" spans="1:26" ht="12" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="87" t="s">
+        <v>783</v>
+      </c>
+      <c r="C142" s="88" t="s">
+        <v>784</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>785</v>
-      </c>
-      <c r="C142" s="88" t="s">
-        <v>786</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>787</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -46766,7 +46705,7 @@
     <row r="146" spans="1:26" ht="12" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="60" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -46825,7 +46764,7 @@
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="132" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D148" s="133"/>
       <c r="E148" s="133"/>
@@ -46855,7 +46794,7 @@
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="132" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D149" s="133"/>
       <c r="E149" s="133"/>
@@ -46913,7 +46852,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -46971,7 +46910,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -47029,7 +46968,7 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -47059,7 +46998,7 @@
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -47144,7 +47083,7 @@
     <row r="159" spans="1:26" ht="12" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="60" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -47203,7 +47142,7 @@
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -47289,7 +47228,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -47347,7 +47286,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -47405,7 +47344,7 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -47462,7 +47401,7 @@
     <row r="170" spans="1:26" ht="12" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="89" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -47520,19 +47459,19 @@
     <row r="172" spans="1:26" ht="12" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="91" t="s">
+        <v>797</v>
+      </c>
+      <c r="C172" s="92" t="s">
+        <v>798</v>
+      </c>
+      <c r="D172" s="92" t="s">
         <v>799</v>
       </c>
-      <c r="C172" s="92" t="s">
+      <c r="E172" s="92" t="s">
         <v>800</v>
       </c>
-      <c r="D172" s="92" t="s">
+      <c r="F172" s="93" t="s">
         <v>801</v>
-      </c>
-      <c r="E172" s="92" t="s">
-        <v>802</v>
-      </c>
-      <c r="F172" s="93" t="s">
-        <v>803</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
@@ -47558,13 +47497,13 @@
     <row r="173" spans="1:26" ht="12" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="94" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C173" s="95">
         <v>1</v>
       </c>
       <c r="D173" s="95" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E173" s="96">
         <v>7500000</v>
@@ -47594,13 +47533,13 @@
     <row r="174" spans="1:26" ht="12" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="98" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C174" s="99">
         <v>2</v>
       </c>
       <c r="D174" s="99" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E174" s="100">
         <v>19000000</v>
@@ -47608,7 +47547,7 @@
       <c r="F174" s="101"/>
       <c r="G174" s="5"/>
       <c r="H174" s="102" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -47632,13 +47571,13 @@
     <row r="175" spans="1:26" ht="12" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="98" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C175" s="99">
         <v>3</v>
       </c>
       <c r="D175" s="99" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E175" s="100">
         <v>19000000</v>
@@ -47668,13 +47607,13 @@
     <row r="176" spans="1:26" ht="12" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="98" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C176" s="99">
         <v>1</v>
       </c>
       <c r="D176" s="99" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E176" s="100">
         <v>36500000</v>
@@ -47682,7 +47621,7 @@
       <c r="F176" s="101"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
@@ -47706,13 +47645,13 @@
     <row r="177" spans="1:26" ht="12" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="98" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C177" s="99">
         <v>2</v>
       </c>
       <c r="D177" s="99" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E177" s="100">
         <v>27500000</v>
@@ -47742,13 +47681,13 @@
     <row r="178" spans="1:26" ht="12" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="98" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C178" s="99">
         <v>1</v>
       </c>
       <c r="D178" s="99" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E178" s="100">
         <v>15000000</v>
@@ -47756,7 +47695,7 @@
       <c r="F178" s="101"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
@@ -47780,13 +47719,13 @@
     <row r="179" spans="1:26" ht="12" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="98" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C179" s="99">
         <v>2</v>
       </c>
       <c r="D179" s="99" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E179" s="100">
         <v>15000000</v>
@@ -47794,7 +47733,7 @@
       <c r="F179" s="101"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -47818,13 +47757,13 @@
     <row r="180" spans="1:26" ht="12" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="98" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C180" s="99">
         <v>1</v>
       </c>
       <c r="D180" s="99" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E180" s="100">
         <v>15000000</v>
@@ -47832,7 +47771,7 @@
       <c r="F180" s="101"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -47856,13 +47795,13 @@
     <row r="181" spans="1:26" ht="12" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="98" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C181" s="99">
         <v>2</v>
       </c>
       <c r="D181" s="99" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E181" s="100">
         <v>27500000</v>
@@ -47870,7 +47809,7 @@
       <c r="F181" s="101"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
@@ -47900,7 +47839,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="99" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E182" s="100">
         <v>27500000</v>
@@ -47908,7 +47847,7 @@
       <c r="F182" s="101"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -47938,7 +47877,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="99" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E183" s="100">
         <v>38500000</v>
@@ -47974,7 +47913,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="99" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E184" s="100">
         <v>27500000</v>
@@ -47982,7 +47921,7 @@
       <c r="F184" s="101"/>
       <c r="G184" s="5"/>
       <c r="H184" s="103" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
@@ -48012,7 +47951,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="99" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E185" s="100">
         <v>38500000</v>
@@ -48020,7 +47959,7 @@
       <c r="F185" s="101"/>
       <c r="G185" s="5"/>
       <c r="H185" s="132" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -48050,7 +47989,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="99" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E186" s="100">
         <v>27500000</v>
@@ -48086,7 +48025,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="99" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E187" s="100">
         <v>38500000</v>
@@ -48122,7 +48061,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="99" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E188" s="100">
         <v>27500000</v>
@@ -48158,7 +48097,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="99" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E189" s="100">
         <v>38500000</v>
@@ -48188,13 +48127,13 @@
     <row r="190" spans="1:26" ht="12" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="98" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C190" s="99">
         <v>1</v>
       </c>
       <c r="D190" s="99" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E190" s="100">
         <v>15000000</v>
@@ -48224,13 +48163,13 @@
     <row r="191" spans="1:26" ht="12" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="98" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C191" s="99">
         <v>2</v>
       </c>
       <c r="D191" s="99" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E191" s="100">
         <v>38500000</v>
@@ -48260,13 +48199,13 @@
     <row r="192" spans="1:26" ht="12" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="98" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C192" s="99">
         <v>3</v>
       </c>
       <c r="D192" s="99" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E192" s="100">
         <v>38500000</v>
@@ -48296,13 +48235,13 @@
     <row r="193" spans="1:26" ht="12" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="98" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C193" s="99">
         <v>4</v>
       </c>
       <c r="D193" s="99" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E193" s="100">
         <v>38500000</v>
@@ -48332,13 +48271,13 @@
     <row r="194" spans="1:26" ht="12" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="98" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C194" s="99">
         <v>1</v>
       </c>
       <c r="D194" s="99" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E194" s="100">
         <v>27500000</v>
@@ -48368,13 +48307,13 @@
     <row r="195" spans="1:26" ht="12" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="98" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C195" s="99">
         <v>2</v>
       </c>
       <c r="D195" s="99" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E195" s="100"/>
       <c r="F195" s="101">
@@ -48404,13 +48343,13 @@
     <row r="196" spans="1:26" ht="12" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="98" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C196" s="99">
         <v>1</v>
       </c>
       <c r="D196" s="99" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E196" s="100"/>
       <c r="F196" s="101">
@@ -48440,13 +48379,13 @@
     <row r="197" spans="1:26" ht="12" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="98" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C197" s="99">
         <v>2</v>
       </c>
       <c r="D197" s="99" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E197" s="100"/>
       <c r="F197" s="101">
@@ -48476,13 +48415,13 @@
     <row r="198" spans="1:26" ht="12" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="98" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C198" s="99">
         <v>3</v>
       </c>
       <c r="D198" s="99" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E198" s="100"/>
       <c r="F198" s="101">
@@ -48512,13 +48451,13 @@
     <row r="199" spans="1:26" ht="12" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="98" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C199" s="99">
         <v>4</v>
       </c>
       <c r="D199" s="99" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E199" s="100"/>
       <c r="F199" s="101">
@@ -48548,13 +48487,13 @@
     <row r="200" spans="1:26" ht="12" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="98" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C200" s="99">
         <v>1</v>
       </c>
       <c r="D200" s="99" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E200" s="100">
         <v>20500000</v>
@@ -48584,13 +48523,13 @@
     <row r="201" spans="1:26" ht="12" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="98" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C201" s="99">
         <v>2</v>
       </c>
       <c r="D201" s="99" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E201" s="100"/>
       <c r="F201" s="101">
@@ -48620,13 +48559,13 @@
     <row r="202" spans="1:26" ht="12" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="98" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C202" s="99">
         <v>1</v>
       </c>
       <c r="D202" s="99" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E202" s="100">
         <v>15000000</v>
@@ -48656,13 +48595,13 @@
     <row r="203" spans="1:26" ht="12" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="104" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C203" s="105">
         <v>2</v>
       </c>
       <c r="D203" s="105" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E203" s="106">
         <v>38500000</v>
@@ -48748,7 +48687,7 @@
     <row r="206" spans="1:26" ht="12" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="89" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -48806,19 +48745,19 @@
     <row r="208" spans="1:26" ht="12" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="108" t="s">
+        <v>797</v>
+      </c>
+      <c r="C208" s="109" t="s">
+        <v>798</v>
+      </c>
+      <c r="D208" s="109" t="s">
         <v>799</v>
       </c>
-      <c r="C208" s="109" t="s">
+      <c r="E208" s="109" t="s">
         <v>800</v>
       </c>
-      <c r="D208" s="109" t="s">
+      <c r="F208" s="110" t="s">
         <v>801</v>
-      </c>
-      <c r="E208" s="109" t="s">
-        <v>802</v>
-      </c>
-      <c r="F208" s="110" t="s">
-        <v>803</v>
       </c>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
@@ -48844,13 +48783,13 @@
     <row r="209" spans="1:26" ht="12" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="111" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C209" s="95">
         <v>1</v>
       </c>
       <c r="D209" s="95" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E209" s="96">
         <v>7500000</v>
@@ -48880,13 +48819,13 @@
     <row r="210" spans="1:26" ht="12" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="112" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C210" s="99">
         <v>2</v>
       </c>
       <c r="D210" s="99" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E210" s="100">
         <v>19000000</v>
@@ -48916,13 +48855,13 @@
     <row r="211" spans="1:26" ht="12" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="112" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C211" s="99">
         <v>3</v>
       </c>
       <c r="D211" s="99" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E211" s="100">
         <v>19000000</v>
@@ -48952,13 +48891,13 @@
     <row r="212" spans="1:26" ht="12" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="112" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C212" s="99">
         <v>1</v>
       </c>
       <c r="D212" s="99" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E212" s="100">
         <v>36500000</v>
@@ -48988,13 +48927,13 @@
     <row r="213" spans="1:26" ht="12" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="112" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C213" s="99">
         <v>2</v>
       </c>
       <c r="D213" s="99" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E213" s="100">
         <v>27500000</v>
@@ -49030,7 +48969,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="99" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E214" s="100">
         <v>15000000</v>
@@ -49066,7 +49005,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="99" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E215" s="100">
         <v>15000000</v>
@@ -49096,13 +49035,13 @@
     <row r="216" spans="1:26" ht="12" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="112" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C216" s="99">
         <v>1</v>
       </c>
       <c r="D216" s="99" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E216" s="100">
         <v>15000000</v>
@@ -49132,13 +49071,13 @@
     <row r="217" spans="1:26" ht="12" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="112" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C217" s="99">
         <v>2</v>
       </c>
       <c r="D217" s="99" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E217" s="100">
         <v>27500000</v>
@@ -49168,13 +49107,13 @@
     <row r="218" spans="1:26" ht="12" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="112" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C218" s="99">
         <v>1</v>
       </c>
       <c r="D218" s="99" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E218" s="100">
         <v>27500000</v>
@@ -49204,13 +49143,13 @@
     <row r="219" spans="1:26" ht="12" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="112" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C219" s="99">
         <v>2</v>
       </c>
       <c r="D219" s="99" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E219" s="100">
         <v>38500000</v>
@@ -49246,7 +49185,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="99" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E220" s="100">
         <v>15000000</v>
@@ -49276,13 +49215,13 @@
     <row r="221" spans="1:26" ht="12" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="112" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C221" s="99">
         <v>2</v>
       </c>
       <c r="D221" s="99" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E221" s="100">
         <v>38500000</v>
@@ -49312,13 +49251,13 @@
     <row r="222" spans="1:26" ht="12" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="112" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C222" s="99">
         <v>3</v>
       </c>
       <c r="D222" s="99" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E222" s="100">
         <v>38500000</v>
@@ -49348,13 +49287,13 @@
     <row r="223" spans="1:26" ht="12" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="112" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C223" s="99">
         <v>4</v>
       </c>
       <c r="D223" s="99" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E223" s="100">
         <v>38500000</v>
@@ -49384,13 +49323,13 @@
     <row r="224" spans="1:26" ht="12" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="112" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C224" s="99">
         <v>1</v>
       </c>
       <c r="D224" s="99" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E224" s="100">
         <v>27500000</v>
@@ -49420,16 +49359,16 @@
     <row r="225" spans="1:26" ht="12" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="112" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C225" s="99">
         <v>2</v>
       </c>
       <c r="D225" s="99" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E225" s="100" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F225" s="101">
         <v>150</v>
@@ -49458,16 +49397,16 @@
     <row r="226" spans="1:26" ht="12" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="112" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C226" s="99">
         <v>1</v>
       </c>
       <c r="D226" s="99" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E226" s="100" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F226" s="101">
         <v>1000</v>
@@ -49496,16 +49435,16 @@
     <row r="227" spans="1:26" ht="12" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="112" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C227" s="99">
         <v>2</v>
       </c>
       <c r="D227" s="99" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E227" s="100" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F227" s="101">
         <v>1500</v>
@@ -49534,16 +49473,16 @@
     <row r="228" spans="1:26" ht="12" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="112" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C228" s="99">
         <v>3</v>
       </c>
       <c r="D228" s="99" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E228" s="100" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F228" s="101">
         <v>1250</v>
@@ -49572,16 +49511,16 @@
     <row r="229" spans="1:26" ht="12" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="112" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C229" s="99">
         <v>4</v>
       </c>
       <c r="D229" s="99" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E229" s="100" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F229" s="101">
         <v>1250</v>
@@ -49610,13 +49549,13 @@
     <row r="230" spans="1:26" ht="12" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="112" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C230" s="99">
         <v>1</v>
       </c>
       <c r="D230" s="99" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E230" s="100">
         <v>20500000</v>
@@ -49646,16 +49585,16 @@
     <row r="231" spans="1:26" ht="12" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="112" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C231" s="99">
         <v>2</v>
       </c>
       <c r="D231" s="99" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E231" s="100" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F231" s="101">
         <v>750</v>
@@ -49684,13 +49623,13 @@
     <row r="232" spans="1:26" ht="12" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="112" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C232" s="99">
         <v>1</v>
       </c>
       <c r="D232" s="99" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E232" s="100">
         <v>15000000</v>
@@ -49720,13 +49659,13 @@
     <row r="233" spans="1:26" ht="12" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="113" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C233" s="105">
         <v>2</v>
       </c>
       <c r="D233" s="105" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E233" s="106">
         <v>38500000</v>
@@ -49840,7 +49779,7 @@
     <row r="237" spans="1:26" ht="12" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="60" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -49898,14 +49837,14 @@
     <row r="239" spans="1:26" ht="12" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="71" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C239" s="72" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -49932,10 +49871,10 @@
     <row r="240" spans="1:26" ht="12" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="30" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C240" s="114" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -49964,14 +49903,14 @@
     <row r="241" spans="1:26" ht="12" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="30" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C241" s="114" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
@@ -49998,14 +49937,14 @@
     <row r="242" spans="1:26" ht="12" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="115" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C242" s="116" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
@@ -50063,7 +50002,7 @@
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
@@ -50121,7 +50060,7 @@
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
@@ -50179,7 +50118,7 @@
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
@@ -50209,7 +50148,7 @@
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
@@ -71283,9 +71222,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="26" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
@@ -71295,7 +71234,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="117" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
@@ -71303,7 +71242,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="117" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
@@ -71311,7 +71250,7 @@
         <v>110</v>
       </c>
       <c r="G5" s="117" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
@@ -71319,7 +71258,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="117" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
@@ -71327,7 +71266,7 @@
         <v>57</v>
       </c>
       <c r="G7" s="117" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
